--- a/outcome/appendix/model/pre-epidemic.xlsx
+++ b/outcome/appendix/model/pre-epidemic.xlsx
@@ -894,10 +894,10 @@
         <v>34.9384002992598</v>
       </c>
       <c r="D22" t="n">
-        <v>36.0201208581605</v>
+        <v>42.7742242991631</v>
       </c>
       <c r="E22" t="n">
-        <v>35.1186870590766</v>
+        <v>36.2443709659104</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -914,10 +914,10 @@
         <v>55740.9757607946</v>
       </c>
       <c r="D23" t="n">
-        <v>69492.2456949235</v>
+        <v>72179.5711864883</v>
       </c>
       <c r="E23" t="n">
-        <v>58258.6962114542</v>
+        <v>58800.7545168325</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -934,10 +934,10 @@
         <v>0.682365474673812</v>
       </c>
       <c r="D24" t="n">
-        <v>1.12817731391391</v>
+        <v>1.17518061499957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.795425693260114</v>
+        <v>0.802512812248152</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -954,10 +954,10 @@
         <v>0.773157901185572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.788575560114709</v>
+        <v>0.78584020947696</v>
       </c>
       <c r="E25" t="n">
-        <v>0.756057301841689</v>
+        <v>0.75214689217661</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1374,10 +1374,10 @@
         <v>15.0609172542205</v>
       </c>
       <c r="D46" t="n">
-        <v>44.3511472936318</v>
+        <v>44.2318244242324</v>
       </c>
       <c r="E46" t="n">
-        <v>19.9426222607891</v>
+        <v>19.9227351158892</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1394,10 +1394,10 @@
         <v>16866.2182709227</v>
       </c>
       <c r="D47" t="n">
-        <v>63906.0738485942</v>
+        <v>63708.3035538247</v>
       </c>
       <c r="E47" t="n">
-        <v>30293.9291733344</v>
+        <v>30224.4231693463</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1414,10 +1414,10 @@
         <v>0.784988213689757</v>
       </c>
       <c r="D48" t="n">
-        <v>5.85095668731584</v>
+        <v>5.81161673015777</v>
       </c>
       <c r="E48" t="n">
-        <v>1.6298849846392</v>
+        <v>1.62458723209027</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -1434,10 +1434,10 @@
         <v>0.593025819860899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.043342014224199</v>
+        <v>0.0464864357841928</v>
       </c>
       <c r="E49" t="n">
-        <v>0.517239896660726</v>
+        <v>0.518369615774422</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2334,10 +2334,10 @@
         <v>109.185647119093</v>
       </c>
       <c r="D94" t="n">
-        <v>165.146745905834</v>
+        <v>148.073697118214</v>
       </c>
       <c r="E94" t="n">
-        <v>118.512496916883</v>
+        <v>115.666988785613</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2354,10 +2354,10 @@
         <v>23260.4753128358</v>
       </c>
       <c r="D95" t="n">
-        <v>7779.22759318638</v>
+        <v>7834.31177864797</v>
       </c>
       <c r="E95" t="n">
-        <v>21469.9982178303</v>
+        <v>21473.3361790085</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -2374,10 +2374,10 @@
         <v>1.79772624057829</v>
       </c>
       <c r="D96" t="n">
-        <v>1.04021204049932</v>
+        <v>0.70328590953371</v>
       </c>
       <c r="E96" t="n">
-        <v>1.44549853672001</v>
+        <v>1.34119650498656</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -2394,10 +2394,10 @@
         <v>0.000820173370036134</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0183903641087142</v>
+        <v>0.0215979018063294</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00113981667837484</v>
+        <v>0.00104798675913133</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -3294,10 +3294,10 @@
         <v>14.8535132572335</v>
       </c>
       <c r="D142" t="n">
-        <v>28.3840569588887</v>
+        <v>30.7516076359799</v>
       </c>
       <c r="E142" t="n">
-        <v>17.108603874176</v>
+        <v>17.5031956536912</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -3314,10 +3314,10 @@
         <v>520.214575308238</v>
       </c>
       <c r="D143" t="n">
-        <v>491.520387750096</v>
+        <v>512.197188443106</v>
       </c>
       <c r="E143" t="n">
-        <v>515.543130007836</v>
+        <v>518.886946849484</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -3334,10 +3334,10 @@
         <v>1.13609742920994</v>
       </c>
       <c r="D144" t="n">
-        <v>2.22010291904215</v>
+        <v>2.3602404749909</v>
       </c>
       <c r="E144" t="n">
-        <v>1.09405789713805</v>
+        <v>1.10839823074136</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -3354,10 +3354,10 @@
         <v>0.80819823360651</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0415612041970052</v>
+        <v>0.0333901129095474</v>
       </c>
       <c r="E145" t="n">
-        <v>0.822005728294263</v>
+        <v>0.821468770657557</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -3774,10 +3774,10 @@
         <v>12.658686928765</v>
       </c>
       <c r="D166" t="n">
-        <v>17.3991499698967</v>
+        <v>17.1799298761819</v>
       </c>
       <c r="E166" t="n">
-        <v>13.4487641022869</v>
+        <v>13.4122274200011</v>
       </c>
       <c r="F166" t="s">
         <v>22</v>
@@ -3794,10 +3794,10 @@
         <v>205.976684777315</v>
       </c>
       <c r="D167" t="n">
-        <v>181.169107748343</v>
+        <v>180.274919971032</v>
       </c>
       <c r="E167" t="n">
-        <v>202.053713552279</v>
+        <v>201.920372147797</v>
       </c>
       <c r="F167" t="s">
         <v>22</v>
@@ -3814,10 +3814,10 @@
         <v>0.733135772717906</v>
       </c>
       <c r="D168" t="n">
-        <v>0.878416993879367</v>
+        <v>0.868413625057543</v>
       </c>
       <c r="E168" t="n">
-        <v>0.695516719632042</v>
+        <v>0.694199717261205</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3834,10 +3834,10 @@
         <v>0.77758666516722</v>
       </c>
       <c r="D169" t="n">
-        <v>0.687565293979018</v>
+        <v>0.682742533363503</v>
       </c>
       <c r="E169" t="n">
-        <v>0.779396771244403</v>
+        <v>0.779254513181869</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
@@ -4254,10 +4254,10 @@
         <v>5.41431018441629</v>
       </c>
       <c r="D190" t="n">
-        <v>3.58299988682573</v>
+        <v>3.57796193003801</v>
       </c>
       <c r="E190" t="n">
-        <v>5.10909180148453</v>
+        <v>5.10825214201991</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
@@ -4274,10 +4274,10 @@
         <v>8376.60784320271</v>
       </c>
       <c r="D191" t="n">
-        <v>5075.70026859205</v>
+        <v>5152.71691461785</v>
       </c>
       <c r="E191" t="n">
-        <v>7922.54723358814</v>
+        <v>7930.82894360371</v>
       </c>
       <c r="F191" t="s">
         <v>23</v>
@@ -4294,10 +4294,10 @@
         <v>0.652907056056505</v>
       </c>
       <c r="D192" t="n">
-        <v>0.702447409685931</v>
+        <v>0.676904216075468</v>
       </c>
       <c r="E192" t="n">
-        <v>0.827906332543864</v>
+        <v>0.823744587431784</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4314,10 +4314,10 @@
         <v>0.535540852405983</v>
       </c>
       <c r="D193" t="n">
-        <v>0.690285346394498</v>
+        <v>0.696068179368152</v>
       </c>
       <c r="E193" t="n">
-        <v>0.53758529165842</v>
+        <v>0.537039769787474</v>
       </c>
       <c r="F193" t="s">
         <v>23</v>
@@ -4734,10 +4734,10 @@
         <v>5.83453927698649</v>
       </c>
       <c r="D214" t="n">
-        <v>4.72007564411307</v>
+        <v>4.72974389745277</v>
       </c>
       <c r="E214" t="n">
-        <v>5.64879533817426</v>
+        <v>5.65040671373087</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4754,10 +4754,10 @@
         <v>2460.47774061794</v>
       </c>
       <c r="D215" t="n">
-        <v>2610.67129591277</v>
+        <v>2605.90181701141</v>
       </c>
       <c r="E215" t="n">
-        <v>2486.14018697273</v>
+        <v>2485.30607908044</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4774,10 +4774,10 @@
         <v>0.574762534807201</v>
       </c>
       <c r="D216" t="n">
-        <v>0.992069203166979</v>
+        <v>1.02371009349713</v>
       </c>
       <c r="E216" t="n">
-        <v>0.867289287154612</v>
+        <v>0.872582795127539</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4794,10 +4794,10 @@
         <v>0.869750922775877</v>
       </c>
       <c r="D217" t="n">
-        <v>0.802679487753028</v>
+        <v>0.80958422398133</v>
       </c>
       <c r="E217" t="n">
-        <v>0.90552944233935</v>
+        <v>0.905741512237919</v>
       </c>
       <c r="F217" t="s">
         <v>24</v>
@@ -5694,10 +5694,10 @@
         <v>5.79707999138739</v>
       </c>
       <c r="D262" t="n">
-        <v>26.6014256530304</v>
+        <v>26.6471860554142</v>
       </c>
       <c r="E262" t="n">
-        <v>9.26447093499455</v>
+        <v>9.2720976687252</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5714,10 +5714,10 @@
         <v>804.542063828537</v>
       </c>
       <c r="D263" t="n">
-        <v>3562.57467580286</v>
+        <v>3582.59220311784</v>
       </c>
       <c r="E263" t="n">
-        <v>1629.33411669815</v>
+        <v>1636.63305580838</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5734,10 +5734,10 @@
         <v>0.6709894335389</v>
       </c>
       <c r="D264" t="n">
-        <v>5.33101047447726</v>
+        <v>5.2991430908928</v>
       </c>
       <c r="E264" t="n">
-        <v>1.43438417431489</v>
+        <v>1.43515485095774</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -5754,10 +5754,10 @@
         <v>0.782725202592921</v>
       </c>
       <c r="D265" t="n">
-        <v>0.114626996458112</v>
+        <v>0.106363823856167</v>
       </c>
       <c r="E265" t="n">
-        <v>0.574615794039664</v>
+        <v>0.57225120343664</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -6654,10 +6654,10 @@
         <v>6.30107880175211</v>
       </c>
       <c r="D310" t="n">
-        <v>5.39302037361567</v>
+        <v>5.38400661114271</v>
       </c>
       <c r="E310" t="n">
-        <v>6.14973573039603</v>
+        <v>6.14823343665054</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -6674,10 +6674,10 @@
         <v>10801.5480383561</v>
       </c>
       <c r="D311" t="n">
-        <v>6343.39079838465</v>
+        <v>6364.50637123236</v>
       </c>
       <c r="E311" t="n">
-        <v>10194.8173675452</v>
+        <v>10197.0105216679</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -6694,10 +6694,10 @@
         <v>0.756750248632185</v>
       </c>
       <c r="D312" t="n">
-        <v>0.780270079077429</v>
+        <v>0.76357558779432</v>
       </c>
       <c r="E312" t="n">
-        <v>0.792382785698389</v>
+        <v>0.790333284110296</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6714,10 +6714,10 @@
         <v>0.70762011127897</v>
       </c>
       <c r="D313" t="n">
-        <v>0.660089767686177</v>
+        <v>0.657264767523754</v>
       </c>
       <c r="E313" t="n">
-        <v>0.743012033011923</v>
+        <v>0.742826527708287</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -7614,10 +7614,10 @@
         <v>29.1571368055045</v>
       </c>
       <c r="D358" t="n">
-        <v>41.8399020236985</v>
+        <v>41.369223294134</v>
       </c>
       <c r="E358" t="n">
-        <v>31.2709310085368</v>
+        <v>31.1924845536094</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -7634,10 +7634,10 @@
         <v>1181.04909724387</v>
       </c>
       <c r="D359" t="n">
-        <v>2937.21600031713</v>
+        <v>2909.31505310534</v>
       </c>
       <c r="E359" t="n">
-        <v>1612.5354095865</v>
+        <v>1604.08327551534</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -7654,10 +7654,10 @@
         <v>0.520848808696237</v>
       </c>
       <c r="D360" t="n">
-        <v>1.57661307768665</v>
+        <v>1.553102846318</v>
       </c>
       <c r="E360" t="n">
-        <v>0.810493710325067</v>
+        <v>0.805451891609717</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7674,10 +7674,10 @@
         <v>0.797375226574292</v>
       </c>
       <c r="D361" t="n">
-        <v>0.877466713750806</v>
+        <v>0.869898717845092</v>
       </c>
       <c r="E361" t="n">
-        <v>0.741954473965052</v>
+        <v>0.743765050594733</v>
       </c>
       <c r="F361" t="s">
         <v>30</v>
@@ -8094,10 +8094,10 @@
         <v>98.48506642476</v>
       </c>
       <c r="D382" t="n">
-        <v>147.87324477126</v>
+        <v>148.921123701988</v>
       </c>
       <c r="E382" t="n">
-        <v>106.71642948251</v>
+        <v>106.891075970965</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8114,10 +8114,10 @@
         <v>5191.85373826034</v>
       </c>
       <c r="D383" t="n">
-        <v>2566.80538361776</v>
+        <v>2524.56016837791</v>
       </c>
       <c r="E383" t="n">
-        <v>4853.95399090282</v>
+        <v>4850.25996281299</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8134,10 +8134,10 @@
         <v>1.68089955799498</v>
       </c>
       <c r="D384" t="n">
-        <v>1.06401166263685</v>
+        <v>0.994151746460476</v>
       </c>
       <c r="E384" t="n">
-        <v>0.93918253832666</v>
+        <v>0.933282597598485</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8154,10 +8154,10 @@
         <v>0.527090876766937</v>
       </c>
       <c r="D385" t="n">
-        <v>0.348558168354267</v>
+        <v>0.367421013909852</v>
       </c>
       <c r="E385" t="n">
-        <v>0.525419710195099</v>
+        <v>0.525813500984611</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8574,10 +8574,10 @@
         <v>23.345447221582</v>
       </c>
       <c r="D406" t="n">
-        <v>186.645427701994</v>
+        <v>186.704597772557</v>
       </c>
       <c r="E406" t="n">
-        <v>50.5621106349839</v>
+        <v>50.5719723134112</v>
       </c>
       <c r="F406" t="s">
         <v>32</v>
@@ -8594,10 +8594,10 @@
         <v>90.868074419849</v>
       </c>
       <c r="D407" t="n">
-        <v>3888.62648737501</v>
+        <v>3850.35563003599</v>
       </c>
       <c r="E407" t="n">
-        <v>1589.69079766362</v>
+        <v>1574.088281752</v>
       </c>
       <c r="F407" t="s">
         <v>32</v>
@@ -8614,10 +8614,10 @@
         <v>0.777160603531118</v>
       </c>
       <c r="D408" t="n">
-        <v>19.9459444844469</v>
+        <v>19.9548433004609</v>
       </c>
       <c r="E408" t="n">
-        <v>6.31748174664867</v>
+        <v>6.2834035906776</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8634,10 +8634,10 @@
         <v>0.90356218284212</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0847568659562296</v>
+        <v>0.0839834859063172</v>
       </c>
       <c r="E409" t="n">
-        <v>0.373888783890781</v>
+        <v>0.370539362101143</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -9054,10 +9054,10 @@
         <v>16.6560663773458</v>
       </c>
       <c r="D430" t="n">
-        <v>12.2201579626214</v>
+        <v>11.8027920819417</v>
       </c>
       <c r="E430" t="n">
-        <v>15.9167483082251</v>
+        <v>15.8471873281118</v>
       </c>
       <c r="F430" t="s">
         <v>33</v>
@@ -9074,10 +9074,10 @@
         <v>767.028041329587</v>
       </c>
       <c r="D431" t="n">
-        <v>552.451877648151</v>
+        <v>572.27399434648</v>
       </c>
       <c r="E431" t="n">
-        <v>735.624809039509</v>
+        <v>738.14605663274</v>
       </c>
       <c r="F431" t="s">
         <v>33</v>
@@ -9094,10 +9094,10 @@
         <v>0.625061780229526</v>
       </c>
       <c r="D432" t="n">
-        <v>0.596158661594329</v>
+        <v>0.598638262000897</v>
       </c>
       <c r="E432" t="n">
-        <v>0.656180993337243</v>
+        <v>0.656937682809564</v>
       </c>
       <c r="F432" t="s">
         <v>33</v>
@@ -9114,10 +9114,10 @@
         <v>0.826214809941189</v>
       </c>
       <c r="D433" t="n">
-        <v>0.91482033119885</v>
+        <v>0.926156397872951</v>
       </c>
       <c r="E433" t="n">
-        <v>0.828888419686678</v>
+        <v>0.829006182545162</v>
       </c>
       <c r="F433" t="s">
         <v>33</v>
@@ -9534,10 +9534,10 @@
         <v>16.8388746095559</v>
       </c>
       <c r="D454" t="n">
-        <v>47.1590614963766</v>
+        <v>48.0021822337456</v>
       </c>
       <c r="E454" t="n">
-        <v>21.8922390906926</v>
+        <v>22.0327592135875</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9554,10 +9554,10 @@
         <v>236.208774195654</v>
       </c>
       <c r="D455" t="n">
-        <v>539.738663463572</v>
+        <v>547.883082743686</v>
       </c>
       <c r="E455" t="n">
-        <v>308.299299889061</v>
+        <v>310.684405088667</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9574,10 +9574,10 @@
         <v>0.504177785293007</v>
       </c>
       <c r="D456" t="n">
-        <v>1.75851948166156</v>
+        <v>1.80592894696231</v>
       </c>
       <c r="E456" t="n">
-        <v>0.659571082986264</v>
+        <v>0.665874775718189</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9594,10 +9594,10 @@
         <v>0.777137778008644</v>
       </c>
       <c r="D457" t="n">
-        <v>0.78450504927557</v>
+        <v>0.795686929155693</v>
       </c>
       <c r="E457" t="n">
-        <v>0.669036300880769</v>
+        <v>0.66584775434875</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -10012,10 +10012,10 @@
         <v>120.881685625841</v>
       </c>
       <c r="D478" t="n">
-        <v>150.468185742782</v>
+        <v>123.446842806543</v>
       </c>
       <c r="E478" t="n">
-        <v>125.812768978665</v>
+        <v>121.309211822625</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10032,10 +10032,10 @@
         <v>2924.70062239132</v>
       </c>
       <c r="D479" t="n">
-        <v>1635.00677779051</v>
+        <v>1630.72199393214</v>
       </c>
       <c r="E479" t="n">
-        <v>2752.0482013857</v>
+        <v>2751.62445580106</v>
       </c>
       <c r="F479" t="s">
         <v>35</v>
@@ -10052,10 +10052,10 @@
         <v>1.42974421549462</v>
       </c>
       <c r="D480" t="n">
-        <v>1.37787900552648</v>
+        <v>1.35935727192755</v>
       </c>
       <c r="E480" t="n">
-        <v>2.10686087277947</v>
+        <v>2.10259746484061</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10072,10 +10072,10 @@
         <v>0.0687938822940302</v>
       </c>
       <c r="D481" t="n">
-        <v>0.505934968385102</v>
+        <v>0.468046866737193</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0860069340173444</v>
+        <v>0.0861390309686382</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10492,10 +10492,10 @@
         <v>68.2651677710986</v>
       </c>
       <c r="D502" t="n">
-        <v>149.313599134487</v>
+        <v>157.043016982565</v>
       </c>
       <c r="E502" t="n">
-        <v>81.7732396649966</v>
+        <v>83.0614759730097</v>
       </c>
       <c r="F502" t="s">
         <v>36</v>
@@ -10512,10 +10512,10 @@
         <v>601.14110953725</v>
       </c>
       <c r="D503" t="n">
-        <v>1997.22314478713</v>
+        <v>2873.49898521685</v>
       </c>
       <c r="E503" t="n">
-        <v>982.832086197142</v>
+        <v>1295.10936384543</v>
       </c>
       <c r="F503" t="s">
         <v>36</v>
@@ -10532,10 +10532,10 @@
         <v>2.0257587471605</v>
       </c>
       <c r="D504" t="n">
-        <v>11.7023411572864</v>
+        <v>12.5800919221744</v>
       </c>
       <c r="E504" t="n">
-        <v>1.56257981154085</v>
+        <v>1.84668747251021</v>
       </c>
       <c r="F504" t="s">
         <v>36</v>
@@ -10552,10 +10552,10 @@
         <v>0.689317590081223</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0109253890457404</v>
+        <v>0.0128506877775891</v>
       </c>
       <c r="E505" t="n">
-        <v>0.367707643919804</v>
+        <v>0.226789901400918</v>
       </c>
       <c r="F505" t="s">
         <v>36</v>
@@ -10972,10 +10972,10 @@
         <v>22.4875247310483</v>
       </c>
       <c r="D526" t="n">
-        <v>23.355450605024</v>
+        <v>21.0933604917075</v>
       </c>
       <c r="E526" t="n">
-        <v>22.6321790433776</v>
+        <v>22.2551640244915</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10992,10 +10992,10 @@
         <v>119.071149666839</v>
       </c>
       <c r="D527" t="n">
-        <v>125.544011531324</v>
+        <v>113.524014946926</v>
       </c>
       <c r="E527" t="n">
-        <v>120.174173768945</v>
+        <v>118.164712290785</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11012,10 +11012,10 @@
         <v>0.817247666430658</v>
       </c>
       <c r="D528" t="n">
-        <v>1.2217558798226</v>
+        <v>1.10043378968696</v>
       </c>
       <c r="E528" t="n">
-        <v>1.17407912647896</v>
+        <v>1.1487367100004</v>
       </c>
       <c r="F528" t="s">
         <v>37</v>
@@ -11032,10 +11032,10 @@
         <v>0.408218540090094</v>
       </c>
       <c r="D529" t="n">
-        <v>0.377808637698047</v>
+        <v>0.42410151239691</v>
       </c>
       <c r="E529" t="n">
-        <v>0.390454923236221</v>
+        <v>0.398396908120865</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11452,10 +11452,10 @@
         <v>39.5328394144882</v>
       </c>
       <c r="D550" t="n">
-        <v>86.0755977302324</v>
+        <v>85.073853925669</v>
       </c>
       <c r="E550" t="n">
-        <v>47.2899658004456</v>
+        <v>47.123008499685</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11472,10 +11472,10 @@
         <v>99.9490772837268</v>
       </c>
       <c r="D551" t="n">
-        <v>43.991808218626</v>
+        <v>43.1384072554403</v>
       </c>
       <c r="E551" t="n">
-        <v>92.9913700652614</v>
+        <v>92.9247118459152</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11492,10 +11492,10 @@
         <v>1.2645474574448</v>
       </c>
       <c r="D552" t="n">
-        <v>1.03012867550352</v>
+        <v>0.982552983943475</v>
       </c>
       <c r="E552" t="n">
-        <v>0.944481688949918</v>
+        <v>0.93999811945042</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11512,10 +11512,10 @@
         <v>0.406306829165699</v>
       </c>
       <c r="D553" t="n">
-        <v>0.851199237357904</v>
+        <v>0.852458290137448</v>
       </c>
       <c r="E553" t="n">
-        <v>0.460370313026121</v>
+        <v>0.460231364540055</v>
       </c>
       <c r="F553" t="s">
         <v>38</v>
@@ -11932,10 +11932,10 @@
         <v>122.14634233587</v>
       </c>
       <c r="D574" t="n">
-        <v>127.877216897179</v>
+        <v>118.338172202985</v>
       </c>
       <c r="E574" t="n">
-        <v>123.101488096088</v>
+        <v>121.511647313722</v>
       </c>
       <c r="F574" t="s">
         <v>39</v>
@@ -11952,10 +11952,10 @@
         <v>240.705112838073</v>
       </c>
       <c r="D575" t="n">
-        <v>161.488626980114</v>
+        <v>160.699281736927</v>
       </c>
       <c r="E575" t="n">
-        <v>229.409870964565</v>
+        <v>229.317471308051</v>
       </c>
       <c r="F575" t="s">
         <v>39</v>
@@ -11972,10 +11972,10 @@
         <v>0.890644804443528</v>
       </c>
       <c r="D576" t="n">
-        <v>0.856633269029789</v>
+        <v>0.812881802785822</v>
       </c>
       <c r="E576" t="n">
-        <v>0.745116737434045</v>
+        <v>0.740683593821761</v>
       </c>
       <c r="F576" t="s">
         <v>39</v>
@@ -11992,10 +11992,10 @@
         <v>0.56257212213799</v>
       </c>
       <c r="D577" t="n">
-        <v>0.563241951778909</v>
+        <v>0.551359239894457</v>
       </c>
       <c r="E577" t="n">
-        <v>0.560361233322988</v>
+        <v>0.560202880868449</v>
       </c>
       <c r="F577" t="s">
         <v>39</v>

--- a/outcome/appendix/model/pre-epidemic.xlsx
+++ b/outcome/appendix/model/pre-epidemic.xlsx
@@ -894,10 +894,10 @@
         <v>34.9384002992598</v>
       </c>
       <c r="D22" t="n">
-        <v>42.7742242991631</v>
+        <v>35.7257051312004</v>
       </c>
       <c r="E22" t="n">
-        <v>36.2443709659104</v>
+        <v>35.0696177712499</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -914,10 +914,10 @@
         <v>55740.9757607946</v>
       </c>
       <c r="D23" t="n">
-        <v>72179.5711864883</v>
+        <v>69843.2108120166</v>
       </c>
       <c r="E23" t="n">
-        <v>58800.7545168325</v>
+        <v>58328.6036040055</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -934,10 +934,10 @@
         <v>0.682365474673812</v>
       </c>
       <c r="D24" t="n">
-        <v>1.17518061499957</v>
+        <v>1.11306270778747</v>
       </c>
       <c r="E24" t="n">
-        <v>0.802512812248152</v>
+        <v>0.792815964464332</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -954,10 +954,10 @@
         <v>0.773157901185572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.78584020947696</v>
+        <v>0.798792908121574</v>
       </c>
       <c r="E25" t="n">
-        <v>0.75214689217661</v>
+        <v>0.75566676288358</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1374,10 +1374,10 @@
         <v>15.0609172542205</v>
       </c>
       <c r="D46" t="n">
-        <v>44.2318244242324</v>
+        <v>44.1863738196172</v>
       </c>
       <c r="E46" t="n">
-        <v>19.9227351158892</v>
+        <v>19.91516001512</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1394,10 +1394,10 @@
         <v>16866.2182709227</v>
       </c>
       <c r="D47" t="n">
-        <v>63708.3035538247</v>
+        <v>63560.9818441165</v>
       </c>
       <c r="E47" t="n">
-        <v>30224.4231693463</v>
+        <v>30172.6835807936</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1414,10 +1414,10 @@
         <v>0.784988213689757</v>
       </c>
       <c r="D48" t="n">
-        <v>5.81161673015777</v>
+        <v>5.67731306408769</v>
       </c>
       <c r="E48" t="n">
-        <v>1.62458723209027</v>
+        <v>1.61949837239139</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -1434,10 +1434,10 @@
         <v>0.593025819860899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0464864357841928</v>
+        <v>0.045848505083468</v>
       </c>
       <c r="E49" t="n">
-        <v>0.518369615774422</v>
+        <v>0.518558761848521</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -1854,10 +1854,10 @@
         <v>17.6955558218603</v>
       </c>
       <c r="D70" t="n">
-        <v>121.618963531133</v>
+        <v>122.945421091887</v>
       </c>
       <c r="E70" t="n">
-        <v>35.0161237734058</v>
+        <v>35.2372000335314</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1874,10 +1874,10 @@
         <v>4869.6362574464</v>
       </c>
       <c r="D71" t="n">
-        <v>31688.8625941108</v>
+        <v>33892.3235696525</v>
       </c>
       <c r="E71" t="n">
-        <v>13679.3688871698</v>
+        <v>14533.0450086989</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1894,10 +1894,10 @@
         <v>0.710016465200655</v>
       </c>
       <c r="D72" t="n">
-        <v>6.78600391604331</v>
+        <v>7.25549544433481</v>
       </c>
       <c r="E72" t="n">
-        <v>1.60699044556714</v>
+        <v>1.67325561049956</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1914,10 +1914,10 @@
         <v>0.813196546153588</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213806496105401</v>
+        <v>0.169955775525407</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224129004756477</v>
+        <v>0.192168283062027</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -2334,10 +2334,10 @@
         <v>109.185647119093</v>
       </c>
       <c r="D94" t="n">
-        <v>148.073697118214</v>
+        <v>142.304225075548</v>
       </c>
       <c r="E94" t="n">
-        <v>115.666988785613</v>
+        <v>114.705410111836</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2354,10 +2354,10 @@
         <v>23260.4753128358</v>
       </c>
       <c r="D95" t="n">
-        <v>7834.31177864797</v>
+        <v>7222.19824572836</v>
       </c>
       <c r="E95" t="n">
-        <v>21473.3361790085</v>
+        <v>21437.5399179252</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -2374,10 +2374,10 @@
         <v>1.79772624057829</v>
       </c>
       <c r="D96" t="n">
-        <v>0.70328590953371</v>
+        <v>0.716399615327434</v>
       </c>
       <c r="E96" t="n">
-        <v>1.34119650498656</v>
+        <v>1.34415789288211</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -2394,10 +2394,10 @@
         <v>0.000820173370036134</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0215979018063294</v>
+        <v>0.0113974292768979</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00104798675913133</v>
+        <v>0.00104869985409355</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -3774,10 +3774,10 @@
         <v>12.658686928765</v>
       </c>
       <c r="D166" t="n">
-        <v>17.1799298761819</v>
+        <v>17.3991499698967</v>
       </c>
       <c r="E166" t="n">
-        <v>13.4122274200011</v>
+        <v>13.4487641022869</v>
       </c>
       <c r="F166" t="s">
         <v>22</v>
@@ -3794,10 +3794,10 @@
         <v>205.976684777315</v>
       </c>
       <c r="D167" t="n">
-        <v>180.274919971032</v>
+        <v>181.169107748343</v>
       </c>
       <c r="E167" t="n">
-        <v>201.920372147797</v>
+        <v>202.053713552279</v>
       </c>
       <c r="F167" t="s">
         <v>22</v>
@@ -3814,10 +3814,10 @@
         <v>0.733135772717906</v>
       </c>
       <c r="D168" t="n">
-        <v>0.868413625057543</v>
+        <v>0.878416993879367</v>
       </c>
       <c r="E168" t="n">
-        <v>0.694199717261205</v>
+        <v>0.695516719632042</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3834,10 +3834,10 @@
         <v>0.77758666516722</v>
       </c>
       <c r="D169" t="n">
-        <v>0.682742533363503</v>
+        <v>0.687565293979018</v>
       </c>
       <c r="E169" t="n">
-        <v>0.779254513181869</v>
+        <v>0.779396771244403</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
@@ -4254,10 +4254,10 @@
         <v>5.41431018441629</v>
       </c>
       <c r="D190" t="n">
-        <v>3.57796193003801</v>
+        <v>3.51991925440302</v>
       </c>
       <c r="E190" t="n">
-        <v>5.10825214201991</v>
+        <v>5.09857836274741</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
@@ -4274,10 +4274,10 @@
         <v>8376.60784320271</v>
       </c>
       <c r="D191" t="n">
-        <v>5152.71691461785</v>
+        <v>5082.32578162368</v>
       </c>
       <c r="E191" t="n">
-        <v>7930.82894360371</v>
+        <v>7923.25511963131</v>
       </c>
       <c r="F191" t="s">
         <v>23</v>
@@ -4294,10 +4294,10 @@
         <v>0.652907056056505</v>
       </c>
       <c r="D192" t="n">
-        <v>0.676904216075468</v>
+        <v>0.697621413250532</v>
       </c>
       <c r="E192" t="n">
-        <v>0.823744587431784</v>
+        <v>0.827497425288534</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4314,10 +4314,10 @@
         <v>0.535540852405983</v>
       </c>
       <c r="D193" t="n">
-        <v>0.696068179368152</v>
+        <v>0.702405431509178</v>
       </c>
       <c r="E193" t="n">
-        <v>0.537039769787474</v>
+        <v>0.537689045107078</v>
       </c>
       <c r="F193" t="s">
         <v>23</v>
@@ -4734,10 +4734,10 @@
         <v>5.83453927698649</v>
       </c>
       <c r="D214" t="n">
-        <v>4.72974389745277</v>
+        <v>4.98588244850653</v>
       </c>
       <c r="E214" t="n">
-        <v>5.65040671373087</v>
+        <v>5.69309647223983</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4754,10 +4754,10 @@
         <v>2460.47774061794</v>
       </c>
       <c r="D215" t="n">
-        <v>2605.90181701141</v>
+        <v>2712.75920602904</v>
       </c>
       <c r="E215" t="n">
-        <v>2485.30607908044</v>
+        <v>2504.29018786685</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4774,10 +4774,10 @@
         <v>0.574762534807201</v>
       </c>
       <c r="D216" t="n">
-        <v>1.02371009349713</v>
+        <v>1.11563518212802</v>
       </c>
       <c r="E216" t="n">
-        <v>0.872582795127539</v>
+        <v>0.886483839115022</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4794,10 +4794,10 @@
         <v>0.869750922775877</v>
       </c>
       <c r="D217" t="n">
-        <v>0.80958422398133</v>
+        <v>0.801878098444019</v>
       </c>
       <c r="E217" t="n">
-        <v>0.905741512237919</v>
+        <v>0.904599744603508</v>
       </c>
       <c r="F217" t="s">
         <v>24</v>
@@ -5214,10 +5214,10 @@
         <v>6.27811202085642</v>
       </c>
       <c r="D238" t="n">
-        <v>4.25051080272199</v>
+        <v>4.25398190815014</v>
       </c>
       <c r="E238" t="n">
-        <v>5.94017848450069</v>
+        <v>5.94075700207204</v>
       </c>
       <c r="F238" t="s">
         <v>25</v>
@@ -5234,10 +5234,10 @@
         <v>1329.26400739448</v>
       </c>
       <c r="D239" t="n">
-        <v>1191.45879468548</v>
+        <v>1194.39898361155</v>
       </c>
       <c r="E239" t="n">
-        <v>1307.30563030772</v>
+        <v>1307.75271227811</v>
       </c>
       <c r="F239" t="s">
         <v>25</v>
@@ -5254,10 +5254,10 @@
         <v>0.595567774243519</v>
       </c>
       <c r="D240" t="n">
-        <v>0.757782124069943</v>
+        <v>0.738109836713071</v>
       </c>
       <c r="E240" t="n">
-        <v>1.01134015011839</v>
+        <v>1.00647640045115</v>
       </c>
       <c r="F240" t="s">
         <v>25</v>
@@ -5274,10 +5274,10 @@
         <v>0.877454891420691</v>
       </c>
       <c r="D241" t="n">
-        <v>0.708811826378901</v>
+        <v>0.710381389427174</v>
       </c>
       <c r="E241" t="n">
-        <v>0.892637313432925</v>
+        <v>0.89241627625135</v>
       </c>
       <c r="F241" t="s">
         <v>25</v>
@@ -5694,10 +5694,10 @@
         <v>5.79707999138739</v>
       </c>
       <c r="D262" t="n">
-        <v>26.6471860554142</v>
+        <v>26.3170457345341</v>
       </c>
       <c r="E262" t="n">
-        <v>9.2720976687252</v>
+        <v>9.21707428191183</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5714,10 +5714,10 @@
         <v>804.542063828537</v>
       </c>
       <c r="D263" t="n">
-        <v>3582.59220311784</v>
+        <v>3530.05911439052</v>
       </c>
       <c r="E263" t="n">
-        <v>1636.63305580838</v>
+        <v>1617.49585334033</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5734,10 +5734,10 @@
         <v>0.6709894335389</v>
       </c>
       <c r="D264" t="n">
-        <v>5.2991430908928</v>
+        <v>5.21948452311754</v>
       </c>
       <c r="E264" t="n">
-        <v>1.43515485095774</v>
+        <v>1.42258309653817</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -5754,10 +5754,10 @@
         <v>0.782725202592921</v>
       </c>
       <c r="D265" t="n">
-        <v>0.106363823856167</v>
+        <v>0.10897522776067</v>
       </c>
       <c r="E265" t="n">
-        <v>0.57225120343664</v>
+        <v>0.576058793632457</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -6654,10 +6654,10 @@
         <v>6.30107880175211</v>
       </c>
       <c r="D310" t="n">
-        <v>5.38400661114271</v>
+        <v>5.43287694973074</v>
       </c>
       <c r="E310" t="n">
-        <v>6.14823343665054</v>
+        <v>6.15637849308188</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -6674,10 +6674,10 @@
         <v>10801.5480383561</v>
       </c>
       <c r="D311" t="n">
-        <v>6364.50637123236</v>
+        <v>6377.18328233762</v>
       </c>
       <c r="E311" t="n">
-        <v>10197.0105216679</v>
+        <v>10198.3304739967</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -6694,10 +6694,10 @@
         <v>0.756750248632185</v>
       </c>
       <c r="D312" t="n">
-        <v>0.76357558779432</v>
+        <v>0.780011236395799</v>
       </c>
       <c r="E312" t="n">
-        <v>0.790333284110296</v>
+        <v>0.79217974391</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6714,10 +6714,10 @@
         <v>0.70762011127897</v>
       </c>
       <c r="D313" t="n">
-        <v>0.657264767523754</v>
+        <v>0.652262489775044</v>
       </c>
       <c r="E313" t="n">
-        <v>0.742826527708287</v>
+        <v>0.742651252827748</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -7134,10 +7134,10 @@
         <v>28.1758405191222</v>
       </c>
       <c r="D334" t="n">
-        <v>11.6669215036308</v>
+        <v>12.9507643356152</v>
       </c>
       <c r="E334" t="n">
-        <v>25.4243540165403</v>
+        <v>25.638327821871</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -7154,10 +7154,10 @@
         <v>6676.57035182883</v>
       </c>
       <c r="D335" t="n">
-        <v>3692.6336990851</v>
+        <v>4102.3550416573</v>
       </c>
       <c r="E335" t="n">
-        <v>6278.5149776867</v>
+        <v>6320.76307632775</v>
       </c>
       <c r="F335" t="s">
         <v>29</v>
@@ -7174,10 +7174,10 @@
         <v>0.780108932804444</v>
       </c>
       <c r="D336" t="n">
-        <v>0.441847370223944</v>
+        <v>0.491187198743229</v>
       </c>
       <c r="E336" t="n">
-        <v>0.649451325663921</v>
+        <v>0.656862077355208</v>
       </c>
       <c r="F336" t="s">
         <v>29</v>
@@ -7194,10 +7194,10 @@
         <v>0.774700501882128</v>
       </c>
       <c r="D337" t="n">
-        <v>0.841372868689476</v>
+        <v>0.798880620687587</v>
       </c>
       <c r="E337" t="n">
-        <v>0.776958323760399</v>
+        <v>0.774206014875208</v>
       </c>
       <c r="F337" t="s">
         <v>29</v>
@@ -7614,10 +7614,10 @@
         <v>29.1571368055045</v>
       </c>
       <c r="D358" t="n">
-        <v>41.369223294134</v>
+        <v>40.7464648140719</v>
       </c>
       <c r="E358" t="n">
-        <v>31.1924845536094</v>
+        <v>31.088691473599</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -7634,10 +7634,10 @@
         <v>1181.04909724387</v>
       </c>
       <c r="D359" t="n">
-        <v>2909.31505310534</v>
+        <v>2837.23866786876</v>
       </c>
       <c r="E359" t="n">
-        <v>1604.08327551534</v>
+        <v>1582.41946129719</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -7654,10 +7654,10 @@
         <v>0.520848808696237</v>
       </c>
       <c r="D360" t="n">
-        <v>1.553102846318</v>
+        <v>1.51038118857325</v>
       </c>
       <c r="E360" t="n">
-        <v>0.805451891609717</v>
+        <v>0.797873581312301</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7674,10 +7674,10 @@
         <v>0.797375226574292</v>
       </c>
       <c r="D361" t="n">
-        <v>0.869898717845092</v>
+        <v>0.875181715487276</v>
       </c>
       <c r="E361" t="n">
-        <v>0.743765050594733</v>
+        <v>0.747834233942484</v>
       </c>
       <c r="F361" t="s">
         <v>30</v>
@@ -8094,10 +8094,10 @@
         <v>98.48506642476</v>
       </c>
       <c r="D382" t="n">
-        <v>148.921123701988</v>
+        <v>159.604180755545</v>
       </c>
       <c r="E382" t="n">
-        <v>106.891075970965</v>
+        <v>108.671585479891</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8114,10 +8114,10 @@
         <v>5191.85373826034</v>
       </c>
       <c r="D383" t="n">
-        <v>2524.56016837791</v>
+        <v>2706.71358778097</v>
       </c>
       <c r="E383" t="n">
-        <v>4850.25996281299</v>
+        <v>4866.60430286043</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8134,10 +8134,10 @@
         <v>1.68089955799498</v>
       </c>
       <c r="D384" t="n">
-        <v>0.994151746460476</v>
+        <v>1.26725065403075</v>
       </c>
       <c r="E384" t="n">
-        <v>0.933282597598485</v>
+        <v>0.959381802412441</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8154,10 +8154,10 @@
         <v>0.527090876766937</v>
       </c>
       <c r="D385" t="n">
-        <v>0.367421013909852</v>
+        <v>0.326882800013919</v>
       </c>
       <c r="E385" t="n">
-        <v>0.525813500984611</v>
+        <v>0.525765480851759</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8574,10 +8574,10 @@
         <v>23.345447221582</v>
       </c>
       <c r="D406" t="n">
-        <v>186.704597772557</v>
+        <v>186.55506441314</v>
       </c>
       <c r="E406" t="n">
-        <v>50.5719723134112</v>
+        <v>50.5470500868417</v>
       </c>
       <c r="F406" t="s">
         <v>32</v>
@@ -8594,10 +8594,10 @@
         <v>90.868074419849</v>
       </c>
       <c r="D407" t="n">
-        <v>3850.35563003599</v>
+        <v>3914.189712445</v>
       </c>
       <c r="E407" t="n">
-        <v>1574.088281752</v>
+        <v>1600.11281580155</v>
       </c>
       <c r="F407" t="s">
         <v>32</v>
@@ -8614,10 +8614,10 @@
         <v>0.777160603531118</v>
       </c>
       <c r="D408" t="n">
-        <v>19.9548433004609</v>
+        <v>19.6874420523177</v>
       </c>
       <c r="E408" t="n">
-        <v>6.2834035906776</v>
+        <v>6.32045273701312</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8634,10 +8634,10 @@
         <v>0.90356218284212</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0839834859063172</v>
+        <v>0.0847488259645723</v>
       </c>
       <c r="E409" t="n">
-        <v>0.370539362101143</v>
+        <v>0.375738090253878</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -9534,10 +9534,10 @@
         <v>16.8388746095559</v>
       </c>
       <c r="D454" t="n">
-        <v>48.0021822337456</v>
+        <v>48.4249999303096</v>
       </c>
       <c r="E454" t="n">
-        <v>22.0327592135875</v>
+        <v>22.1032288296815</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9554,10 +9554,10 @@
         <v>236.208774195654</v>
       </c>
       <c r="D455" t="n">
-        <v>547.883082743686</v>
+        <v>567.602927927036</v>
       </c>
       <c r="E455" t="n">
-        <v>310.684405088667</v>
+        <v>316.529621790866</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9574,10 +9574,10 @@
         <v>0.504177785293007</v>
       </c>
       <c r="D456" t="n">
-        <v>1.80592894696231</v>
+        <v>1.79849400619652</v>
       </c>
       <c r="E456" t="n">
-        <v>0.665874775718189</v>
+        <v>0.668857349473131</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9594,10 +9594,10 @@
         <v>0.777137778008644</v>
       </c>
       <c r="D457" t="n">
-        <v>0.795686929155693</v>
+        <v>0.748377633515495</v>
       </c>
       <c r="E457" t="n">
-        <v>0.66584775434875</v>
+        <v>0.657265971875802</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -10012,10 +10012,10 @@
         <v>120.881685625841</v>
       </c>
       <c r="D478" t="n">
-        <v>123.446842806543</v>
+        <v>148.573126357457</v>
       </c>
       <c r="E478" t="n">
-        <v>121.309211822625</v>
+        <v>125.496925747777</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10032,10 +10032,10 @@
         <v>2924.70062239132</v>
       </c>
       <c r="D479" t="n">
-        <v>1630.72199393214</v>
+        <v>1673.77419590616</v>
       </c>
       <c r="E479" t="n">
-        <v>2751.62445580106</v>
+        <v>2755.92962875694</v>
       </c>
       <c r="F479" t="s">
         <v>35</v>
@@ -10052,10 +10052,10 @@
         <v>1.42974421549462</v>
       </c>
       <c r="D480" t="n">
-        <v>1.35935727192755</v>
+        <v>1.39737353603758</v>
       </c>
       <c r="E480" t="n">
-        <v>2.10259746484061</v>
+        <v>2.1104726128133</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10072,10 +10072,10 @@
         <v>0.0687938822940302</v>
       </c>
       <c r="D481" t="n">
-        <v>0.468046866737193</v>
+        <v>0.48127820925048</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0861390309686382</v>
+        <v>0.0848502810895548</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10972,10 +10972,10 @@
         <v>22.4875247310483</v>
       </c>
       <c r="D526" t="n">
-        <v>21.0933604917075</v>
+        <v>23.3272822241705</v>
       </c>
       <c r="E526" t="n">
-        <v>22.2551640244915</v>
+        <v>22.6274843132353</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10992,10 +10992,10 @@
         <v>119.071149666839</v>
       </c>
       <c r="D527" t="n">
-        <v>113.524014946926</v>
+        <v>125.479771003341</v>
       </c>
       <c r="E527" t="n">
-        <v>118.164712290785</v>
+        <v>120.162990937285</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11012,10 +11012,10 @@
         <v>0.817247666430658</v>
       </c>
       <c r="D528" t="n">
-        <v>1.10043378968696</v>
+        <v>1.2122822154125</v>
       </c>
       <c r="E528" t="n">
-        <v>1.1487367100004</v>
+        <v>1.1710392842979</v>
       </c>
       <c r="F528" t="s">
         <v>37</v>
@@ -11032,10 +11032,10 @@
         <v>0.408218540090094</v>
       </c>
       <c r="D529" t="n">
-        <v>0.42410151239691</v>
+        <v>0.371786138911498</v>
       </c>
       <c r="E529" t="n">
-        <v>0.398396908120865</v>
+        <v>0.390286322302435</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11452,10 +11452,10 @@
         <v>39.5328394144882</v>
       </c>
       <c r="D550" t="n">
-        <v>85.073853925669</v>
+        <v>88.5832719686832</v>
       </c>
       <c r="E550" t="n">
-        <v>47.123008499685</v>
+        <v>47.707911506854</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11472,10 +11472,10 @@
         <v>99.9490772837268</v>
       </c>
       <c r="D551" t="n">
-        <v>43.1384072554403</v>
+        <v>47.078665068436</v>
       </c>
       <c r="E551" t="n">
-        <v>92.9247118459152</v>
+        <v>93.2429541162655</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11492,10 +11492,10 @@
         <v>1.2645474574448</v>
       </c>
       <c r="D552" t="n">
-        <v>0.982552983943475</v>
+        <v>1.08349505371762</v>
       </c>
       <c r="E552" t="n">
-        <v>0.93999811945042</v>
+        <v>0.950197978143594</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11512,10 +11512,10 @@
         <v>0.406306829165699</v>
       </c>
       <c r="D553" t="n">
-        <v>0.852458290137448</v>
+        <v>0.821147462021162</v>
       </c>
       <c r="E553" t="n">
-        <v>0.460231364540055</v>
+        <v>0.460004781582556</v>
       </c>
       <c r="F553" t="s">
         <v>38</v>
@@ -11932,10 +11932,10 @@
         <v>122.14634233587</v>
       </c>
       <c r="D574" t="n">
-        <v>118.338172202985</v>
+        <v>127.877216897179</v>
       </c>
       <c r="E574" t="n">
-        <v>121.511647313722</v>
+        <v>123.101488096088</v>
       </c>
       <c r="F574" t="s">
         <v>39</v>
@@ -11952,10 +11952,10 @@
         <v>240.705112838073</v>
       </c>
       <c r="D575" t="n">
-        <v>160.699281736927</v>
+        <v>161.488626980114</v>
       </c>
       <c r="E575" t="n">
-        <v>229.317471308051</v>
+        <v>229.409870964565</v>
       </c>
       <c r="F575" t="s">
         <v>39</v>
@@ -11972,10 +11972,10 @@
         <v>0.890644804443528</v>
       </c>
       <c r="D576" t="n">
-        <v>0.812881802785822</v>
+        <v>0.856633269029789</v>
       </c>
       <c r="E576" t="n">
-        <v>0.740683593821761</v>
+        <v>0.745116737434045</v>
       </c>
       <c r="F576" t="s">
         <v>39</v>
@@ -11992,10 +11992,10 @@
         <v>0.56257212213799</v>
       </c>
       <c r="D577" t="n">
-        <v>0.551359239894457</v>
+        <v>0.563241951778909</v>
       </c>
       <c r="E577" t="n">
-        <v>0.560202880868449</v>
+        <v>0.560361233322988</v>
       </c>
       <c r="F577" t="s">
         <v>39</v>

--- a/outcome/appendix/model/pre-epidemic.xlsx
+++ b/outcome/appendix/model/pre-epidemic.xlsx
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>24.9038173234866</v>
+        <v>24.9383534927709</v>
       </c>
       <c r="D2" t="n">
-        <v>45.3802555665591</v>
+        <v>45.0788803800384</v>
       </c>
       <c r="E2" t="n">
-        <v>28.6268060949544</v>
+        <v>28.6002674722741</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>42054.2048590776</v>
+        <v>42053.5269519887</v>
       </c>
       <c r="D3" t="n">
-        <v>90746.1625296829</v>
+        <v>89656.4928139607</v>
       </c>
       <c r="E3" t="n">
-        <v>54260.9329952714</v>
+        <v>53930.1446901573</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.487863229297548</v>
+        <v>0.488997695222077</v>
       </c>
       <c r="D4" t="n">
-        <v>2.80654669961597</v>
+        <v>2.73637493256571</v>
       </c>
       <c r="E4" t="n">
-        <v>0.662737263063029</v>
+        <v>0.661003349754636</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -551,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.865718508171919</v>
+        <v>0.865768702167784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.718663840894796</v>
+        <v>0.723655703656773</v>
       </c>
       <c r="E5" t="n">
-        <v>0.786029694521749</v>
+        <v>0.788675373568082</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3266531035222</v>
+        <v>37.5110104191305</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0176013081007</v>
+        <v>43.2637088847515</v>
       </c>
       <c r="E6" t="n">
-        <v>38.2751444709519</v>
+        <v>38.469793496734</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>54985.6852092744</v>
+        <v>55051.7090362285</v>
       </c>
       <c r="D7" t="n">
-        <v>64025.1276219689</v>
+        <v>64877.1469479021</v>
       </c>
       <c r="E7" t="n">
-        <v>56592.6156205861</v>
+        <v>56807.4196080458</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -611,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.651854118732528</v>
+        <v>0.654146914995997</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08181045941293</v>
+        <v>1.08912174338792</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831431515010776</v>
+        <v>0.835107137499997</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -631,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.776132410402889</v>
+        <v>0.775479851984465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.791261806830965</v>
+        <v>0.789584332650026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.769717536972251</v>
+        <v>0.767903514673827</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -651,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>28.9766842272484</v>
+        <v>28.9696340112042</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5202469574285</v>
+        <v>40.5703663769987</v>
       </c>
       <c r="E10" t="n">
-        <v>30.9006113489451</v>
+        <v>30.9030894055033</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -671,13 +671,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>65710.4872404001</v>
+        <v>65089.8927761945</v>
       </c>
       <c r="D11" t="n">
-        <v>83976.6708816696</v>
+        <v>83073.1940377514</v>
       </c>
       <c r="E11" t="n">
-        <v>69091.0292286225</v>
+        <v>68416.1607074873</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -691,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.675551311652749</v>
+        <v>0.67346277307778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.79430004459652</v>
+        <v>0.791397312536065</v>
       </c>
       <c r="E12" t="n">
-        <v>0.654693938691955</v>
+        <v>0.654603531128846</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -711,13 +711,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.75099513052006</v>
+        <v>0.752393406435524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.657653725986291</v>
+        <v>0.659895859940296</v>
       </c>
       <c r="E13" t="n">
-        <v>0.735468982452468</v>
+        <v>0.737035536803902</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8571515929389</v>
+        <v>19.8572064352678</v>
       </c>
       <c r="D14" t="n">
-        <v>42.9214948221362</v>
+        <v>42.927861460737</v>
       </c>
       <c r="E14" t="n">
-        <v>23.7012087978051</v>
+        <v>23.7023156061794</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>39120.6816890002</v>
+        <v>39119.2733288071</v>
       </c>
       <c r="D15" t="n">
-        <v>66372.1799530044</v>
+        <v>66383.6221487693</v>
       </c>
       <c r="E15" t="n">
-        <v>44828.1997385098</v>
+        <v>44829.9992907654</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.489076551200843</v>
+        <v>0.489081867127504</v>
       </c>
       <c r="D16" t="n">
-        <v>0.966451185626246</v>
+        <v>0.966705855520252</v>
       </c>
       <c r="E16" t="n">
-        <v>0.572357997361298</v>
+        <v>0.572402839579525</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -791,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>0.88793085165585</v>
+        <v>0.887938274983538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.841917641004403</v>
+        <v>0.841904898556724</v>
       </c>
       <c r="E17" t="n">
-        <v>0.855924240523386</v>
+        <v>0.855915463672383</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>18.6607320379781</v>
+        <v>18.6426579127277</v>
       </c>
       <c r="D18" t="n">
-        <v>35.7967456931265</v>
+        <v>35.8122920420648</v>
       </c>
       <c r="E18" t="n">
-        <v>21.7763708843687</v>
+        <v>21.7644095726071</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>37022.9955124432</v>
+        <v>36939.5687575813</v>
       </c>
       <c r="D19" t="n">
-        <v>52398.1224116787</v>
+        <v>52331.9739254235</v>
       </c>
       <c r="E19" t="n">
-        <v>40257.6319528563</v>
+        <v>40179.2083837887</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40587705475761</v>
+        <v>0.405345634233046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.916809359899556</v>
+        <v>0.920170345492269</v>
       </c>
       <c r="E20" t="n">
-        <v>0.50758013505812</v>
+        <v>0.508897741512466</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.896289296199506</v>
+        <v>0.896738198235563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.836212556161873</v>
+        <v>0.837290622778703</v>
       </c>
       <c r="E21" t="n">
-        <v>0.880586425624215</v>
+        <v>0.881136825927514</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -891,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>34.9384002992598</v>
+        <v>34.9385065841412</v>
       </c>
       <c r="D22" t="n">
-        <v>35.7257051312004</v>
+        <v>36.0201835464013</v>
       </c>
       <c r="E22" t="n">
-        <v>35.0696177712499</v>
+        <v>35.1187860778512</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -911,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>55740.9757607946</v>
+        <v>55741.0030760804</v>
       </c>
       <c r="D23" t="n">
-        <v>69843.2108120166</v>
+        <v>69492.3204295514</v>
       </c>
       <c r="E23" t="n">
-        <v>58328.6036040055</v>
+        <v>58258.7328479909</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -931,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>0.682365474673812</v>
+        <v>0.682366205117288</v>
       </c>
       <c r="D24" t="n">
-        <v>1.11306270778747</v>
+        <v>1.12817470836847</v>
       </c>
       <c r="E24" t="n">
-        <v>0.792815964464332</v>
+        <v>0.795426010099393</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -951,13 +951,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>0.773157901185572</v>
+        <v>0.773157650206298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.798792908121574</v>
+        <v>0.788574767659447</v>
       </c>
       <c r="E25" t="n">
-        <v>0.75566676288358</v>
+        <v>0.75605699194926</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -971,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>6.83400547965052</v>
+        <v>6.71418662436844</v>
       </c>
       <c r="D26" t="n">
-        <v>17.2947126465891</v>
+        <v>14.1493676111725</v>
       </c>
       <c r="E26" t="n">
-        <v>8.73595223727571</v>
+        <v>8.06603771287827</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>7140.94185564969</v>
+        <v>6878.69406975665</v>
       </c>
       <c r="D27" t="n">
-        <v>24285.7072767848</v>
+        <v>21108.0897317095</v>
       </c>
       <c r="E27" t="n">
-        <v>12204.8001404041</v>
+        <v>10941.7914155338</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>0.392661276653301</v>
+        <v>0.384313993126968</v>
       </c>
       <c r="D28" t="n">
-        <v>1.08750857365086</v>
+        <v>0.911845341477746</v>
       </c>
       <c r="E28" t="n">
-        <v>0.553786803427984</v>
+        <v>0.505447107972916</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.927521812323394</v>
+        <v>0.932910662784065</v>
       </c>
       <c r="D29" t="n">
-        <v>0.139537814256343</v>
+        <v>0.279564107847977</v>
       </c>
       <c r="E29" t="n">
-        <v>0.817742838126829</v>
+        <v>0.854492817470872</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1406877475618</v>
+        <v>15.1302494360982</v>
       </c>
       <c r="D30" t="n">
-        <v>15.9604101754768</v>
+        <v>16.0181125059867</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2773081522143</v>
+        <v>15.2782266144129</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>15068.3241199376</v>
+        <v>15061.200989079</v>
       </c>
       <c r="D31" t="n">
-        <v>26474.4072569269</v>
+        <v>26531.6596092055</v>
       </c>
       <c r="E31" t="n">
-        <v>17493.6474113847</v>
+        <v>17502.9894484053</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.757605686335633</v>
+        <v>0.757611205866012</v>
       </c>
       <c r="D32" t="n">
-        <v>1.55889944839611</v>
+        <v>1.56325296322275</v>
       </c>
       <c r="E32" t="n">
-        <v>1.05400146614327</v>
+        <v>1.05460725068384</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1111,13 +1111,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>0.667352318615784</v>
+        <v>0.667411337950311</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0511337185179157</v>
+        <v>0.0509375256844814</v>
       </c>
       <c r="E33" t="n">
-        <v>0.630671174505803</v>
+        <v>0.6302698847662</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1131,13 +1131,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>13.5166715485245</v>
+        <v>13.5103944555766</v>
       </c>
       <c r="D34" t="n">
-        <v>10.9841303711536</v>
+        <v>11.1097099281701</v>
       </c>
       <c r="E34" t="n">
-        <v>13.094581352296</v>
+        <v>13.1102803676755</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1151,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>14899.2433739747</v>
+        <v>14893.1190578053</v>
       </c>
       <c r="D35" t="n">
-        <v>23656.5264922859</v>
+        <v>23846.0199739983</v>
       </c>
       <c r="E35" t="n">
-        <v>16681.1695796232</v>
+        <v>16721.5312543944</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.724292591630163</v>
+        <v>0.724463149026656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.566226677119353</v>
+        <v>0.567770564726171</v>
       </c>
       <c r="E36" t="n">
-        <v>0.72847451037212</v>
+        <v>0.726641222909924</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1191,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>0.691551288997156</v>
+        <v>0.6917002316188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.352860631176005</v>
+        <v>0.350365357060435</v>
       </c>
       <c r="E37" t="n">
-        <v>0.705422484797768</v>
+        <v>0.704731728021105</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1211,13 +1211,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>10.6491867048746</v>
+        <v>10.6490843413078</v>
       </c>
       <c r="D38" t="n">
-        <v>9.431422302285</v>
+        <v>9.44406453085884</v>
       </c>
       <c r="E38" t="n">
-        <v>10.4462259711097</v>
+        <v>10.448247706233</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>12216.9156777725</v>
+        <v>12208.9374662232</v>
       </c>
       <c r="D39" t="n">
-        <v>14951.217214648</v>
+        <v>14963.8258718582</v>
       </c>
       <c r="E39" t="n">
-        <v>12713.5363529626</v>
+        <v>12709.6213882373</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1251,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.594343935814446</v>
+        <v>0.593861071492466</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518149509776509</v>
+        <v>0.518403567328272</v>
       </c>
       <c r="E40" t="n">
-        <v>0.573129719067319</v>
+        <v>0.572827731064263</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.78148220012819</v>
+        <v>0.781603368181152</v>
       </c>
       <c r="D41" t="n">
-        <v>0.638943574114009</v>
+        <v>0.638755890126617</v>
       </c>
       <c r="E41" t="n">
-        <v>0.804247620871419</v>
+        <v>0.804293098370767</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.41417985857896</v>
+        <v>9.39445204407864</v>
       </c>
       <c r="D42" t="n">
-        <v>17.5555567781338</v>
+        <v>19.5832308833253</v>
       </c>
       <c r="E42" t="n">
-        <v>10.8944302075889</v>
+        <v>11.246957287578</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10449.1775922146</v>
+        <v>10438.1751895249</v>
       </c>
       <c r="D43" t="n">
-        <v>24425.7559285819</v>
+        <v>26264.0968884348</v>
       </c>
       <c r="E43" t="n">
-        <v>14064.471410253</v>
+        <v>14648.0066354532</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.486370973503704</v>
+        <v>0.48603083622448</v>
       </c>
       <c r="D44" t="n">
-        <v>1.23443863174727</v>
+        <v>1.45783619992711</v>
       </c>
       <c r="E44" t="n">
-        <v>0.731200337581988</v>
+        <v>0.773996879544746</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.840949751108254</v>
+        <v>0.841119547439863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.468263947947768</v>
+        <v>0.457688339109423</v>
       </c>
       <c r="E45" t="n">
-        <v>0.792573723660736</v>
+        <v>0.78367106491215</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1371,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>15.0609172542205</v>
+        <v>15.0412306129198</v>
       </c>
       <c r="D46" t="n">
-        <v>44.1863738196172</v>
+        <v>46.0457089247368</v>
       </c>
       <c r="E46" t="n">
-        <v>19.91516001512</v>
+        <v>20.2086436648893</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1391,13 +1391,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>16866.2182709227</v>
+        <v>16864.3677965169</v>
       </c>
       <c r="D47" t="n">
-        <v>63560.9818441165</v>
+        <v>67118.3797673092</v>
       </c>
       <c r="E47" t="n">
-        <v>30172.6835807936</v>
+        <v>31429.5810993129</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1411,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.784988213689757</v>
+        <v>0.784688119514293</v>
       </c>
       <c r="D48" t="n">
-        <v>5.67731306408769</v>
+        <v>6.17363048556092</v>
       </c>
       <c r="E48" t="n">
-        <v>1.61949837239139</v>
+        <v>1.67076742870032</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -1431,13 +1431,13 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>0.593025819860899</v>
+        <v>0.592840371266614</v>
       </c>
       <c r="D49" t="n">
-        <v>0.045848505083468</v>
+        <v>0.0347985123904364</v>
       </c>
       <c r="E49" t="n">
-        <v>0.518558761848521</v>
+        <v>0.508517065991949</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>5.91850790978892</v>
+        <v>5.92019305127933</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2793945896019</v>
+        <v>15.5343187315109</v>
       </c>
       <c r="E50" t="n">
-        <v>7.62048730611855</v>
+        <v>7.66821590223052</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -1471,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>1266.19882727687</v>
+        <v>1263.87073474487</v>
       </c>
       <c r="D51" t="n">
-        <v>1287.91430625953</v>
+        <v>1314.13919466204</v>
       </c>
       <c r="E51" t="n">
-        <v>1270.17471068539</v>
+        <v>1273.15809034767</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -1491,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.243198833544727</v>
+        <v>0.242298532203691</v>
       </c>
       <c r="D52" t="n">
-        <v>0.684192934317471</v>
+        <v>0.69428009439109</v>
       </c>
       <c r="E52" t="n">
-        <v>0.283781599334723</v>
+        <v>0.283961617018554</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -1511,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>0.981355209029586</v>
+        <v>0.98142352689919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.976354407473227</v>
+        <v>0.974691737369596</v>
       </c>
       <c r="E53" t="n">
-        <v>0.981188960945916</v>
+        <v>0.98111147949272</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -1531,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>25.3671062540699</v>
+        <v>25.4836901376521</v>
       </c>
       <c r="D54" t="n">
-        <v>107.956862497294</v>
+        <v>108.032840236786</v>
       </c>
       <c r="E54" t="n">
-        <v>39.1320656279405</v>
+        <v>39.2418818208412</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -1551,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3405.8078279701</v>
+        <v>3405.83073092964</v>
       </c>
       <c r="D55" t="n">
-        <v>5412.03846952652</v>
+        <v>5430.37046441232</v>
       </c>
       <c r="E55" t="n">
-        <v>3814.1795797818</v>
+        <v>3818.53676643042</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.68132895320292</v>
+        <v>0.682190425492008</v>
       </c>
       <c r="D56" t="n">
-        <v>1.25687993131151</v>
+        <v>1.2612314029724</v>
       </c>
       <c r="E56" t="n">
-        <v>0.787874310284543</v>
+        <v>0.789028246003934</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -1591,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>0.89076894956766</v>
+        <v>0.890762682115951</v>
       </c>
       <c r="D57" t="n">
-        <v>0.973584005878046</v>
+        <v>0.973423722309008</v>
       </c>
       <c r="E57" t="n">
-        <v>0.867174198638651</v>
+        <v>0.867214382083596</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -1611,13 +1611,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>5.32951425836333</v>
+        <v>5.32502977952685</v>
       </c>
       <c r="D58" t="n">
-        <v>15.977321069004</v>
+        <v>15.9038781954972</v>
       </c>
       <c r="E58" t="n">
-        <v>7.10414872680344</v>
+        <v>7.08817118218857</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -1631,13 +1631,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>1230.9848677719</v>
+        <v>1232.99989521042</v>
       </c>
       <c r="D59" t="n">
-        <v>1921.24657472019</v>
+        <v>1916.8443657477</v>
       </c>
       <c r="E59" t="n">
-        <v>1370.38967233722</v>
+        <v>1370.87174396703</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -1651,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.219753181873727</v>
+        <v>0.219395051511361</v>
       </c>
       <c r="D60" t="n">
-        <v>0.747646247558553</v>
+        <v>0.742513092137397</v>
       </c>
       <c r="E60" t="n">
-        <v>0.27380108714575</v>
+        <v>0.272554112609452</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -1671,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0.985956285065602</v>
+        <v>0.985913839603967</v>
       </c>
       <c r="D61" t="n">
-        <v>0.946701950785741</v>
+        <v>0.946820379321449</v>
       </c>
       <c r="E61" t="n">
-        <v>0.983000524112706</v>
+        <v>0.982986571902852</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -1691,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>6.67373520983138</v>
+        <v>6.67360796184126</v>
       </c>
       <c r="D62" t="n">
-        <v>33.8816913439891</v>
+        <v>33.8956593454481</v>
       </c>
       <c r="E62" t="n">
-        <v>11.2083945655243</v>
+        <v>11.2106165257757</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -1711,13 +1711,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>1348.22505946607</v>
+        <v>1348.28613030113</v>
       </c>
       <c r="D63" t="n">
-        <v>1602.85675043855</v>
+        <v>1603.30371452264</v>
       </c>
       <c r="E63" t="n">
-        <v>1393.89764194314</v>
+        <v>1394.03253470009</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -1731,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224388635902961</v>
+        <v>0.22437512365108</v>
       </c>
       <c r="D64" t="n">
-        <v>0.691449921981418</v>
+        <v>0.69159411425757</v>
       </c>
       <c r="E64" t="n">
-        <v>0.265056365385999</v>
+        <v>0.265057969115055</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -1751,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.985114906339294</v>
+        <v>0.985113763407765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.975645135172202</v>
+        <v>0.975643730269123</v>
       </c>
       <c r="E65" t="n">
-        <v>0.985165375088663</v>
+        <v>0.985163325537906</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>5.12022240900392</v>
+        <v>5.13027343769251</v>
       </c>
       <c r="D66" t="n">
-        <v>13.0547724151502</v>
+        <v>13.0443939985214</v>
       </c>
       <c r="E66" t="n">
-        <v>6.56286786466689</v>
+        <v>6.56920444875231</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1068.61969573011</v>
+        <v>1069.44955660682</v>
       </c>
       <c r="D67" t="n">
-        <v>1799.74687957721</v>
+        <v>1800.20912340347</v>
       </c>
       <c r="E67" t="n">
-        <v>1234.1986781278</v>
+        <v>1234.90915982103</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.211946382969326</v>
+        <v>0.21246791809623</v>
       </c>
       <c r="D68" t="n">
-        <v>0.610546909573391</v>
+        <v>0.609661327553951</v>
       </c>
       <c r="E68" t="n">
-        <v>0.254987264508805</v>
+        <v>0.255279082293994</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.986897727486265</v>
+        <v>0.986884090519388</v>
       </c>
       <c r="D69" t="n">
-        <v>0.976602740773607</v>
+        <v>0.976511014545258</v>
       </c>
       <c r="E69" t="n">
-        <v>0.982447776789751</v>
+        <v>0.982438186884999</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>17.6955558218603</v>
+        <v>17.6948440718607</v>
       </c>
       <c r="D70" t="n">
-        <v>122.945421091887</v>
+        <v>121.61622496906</v>
       </c>
       <c r="E70" t="n">
-        <v>35.2372000335314</v>
+        <v>35.015074221394</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1871,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>4869.6362574464</v>
+        <v>4869.6319836434</v>
       </c>
       <c r="D71" t="n">
-        <v>33892.3235696525</v>
+        <v>31686.9925647614</v>
       </c>
       <c r="E71" t="n">
-        <v>14533.0450086989</v>
+        <v>13678.6456205762</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1891,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.710016465200655</v>
+        <v>0.709965003516009</v>
       </c>
       <c r="D72" t="n">
-        <v>7.25549544433481</v>
+        <v>6.78540443623107</v>
       </c>
       <c r="E72" t="n">
-        <v>1.67325561049956</v>
+        <v>1.60684100793674</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1911,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>0.813196546153588</v>
+        <v>0.813199307059063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.169955775525407</v>
+        <v>0.213834067547757</v>
       </c>
       <c r="E73" t="n">
-        <v>0.192168283062027</v>
+        <v>0.224163233115216</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -1931,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>42.6740492422047</v>
+        <v>36.3735618903105</v>
       </c>
       <c r="D74" t="n">
-        <v>30.1231910288445</v>
+        <v>153.941108323179</v>
       </c>
       <c r="E74" t="n">
-        <v>40.3920750215937</v>
+        <v>57.7494794235593</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -1951,13 +1951,13 @@
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>7245.60267566557</v>
+        <v>8963.29573047174</v>
       </c>
       <c r="D75" t="n">
-        <v>1141.17182793288</v>
+        <v>42988.9704595703</v>
       </c>
       <c r="E75" t="n">
-        <v>6571.93322521992</v>
+        <v>20043.5190058456</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -1971,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0.549571739043447</v>
+        <v>0.611941590431178</v>
       </c>
       <c r="D76" t="n">
-        <v>34.5762803508599</v>
+        <v>1.28521920032449</v>
       </c>
       <c r="E76" t="n">
-        <v>0.601038151264085</v>
+        <v>1.03115072067655</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -1991,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.923784724393919</v>
+        <v>0.87988830669653</v>
       </c>
       <c r="D77" t="n">
-        <v>0.000142664032661908</v>
+        <v>0.043133142281208</v>
       </c>
       <c r="E77" t="n">
-        <v>0.922964320030577</v>
+        <v>0.323916872654416</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2011,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>82.3137073866544</v>
+        <v>84.5722789594825</v>
       </c>
       <c r="D78" t="n">
-        <v>170.387451284072</v>
+        <v>170.089223689849</v>
       </c>
       <c r="E78" t="n">
-        <v>96.9926647028906</v>
+        <v>98.8251030812103</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>19458.777727044</v>
+        <v>19467.6831730127</v>
       </c>
       <c r="D79" t="n">
-        <v>6874.83739053375</v>
+        <v>6921.67638161297</v>
       </c>
       <c r="E79" t="n">
-        <v>17983.7127344847</v>
+        <v>17994.7355475418</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2051,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21843141852368</v>
+        <v>1.22019459093216</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09411344865025</v>
+        <v>1.09014758636842</v>
       </c>
       <c r="E80" t="n">
-        <v>1.21538255834093</v>
+        <v>1.21278487762753</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2071,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>0.114760680516464</v>
+        <v>0.113935683205731</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00946859724954256</v>
+        <v>0.0102400218600112</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0967143467648217</v>
+        <v>0.0959217892979483</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2091,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>48.6021705793107</v>
+        <v>47.9586407989898</v>
       </c>
       <c r="D82" t="n">
-        <v>57.795634966157</v>
+        <v>60.363740527307</v>
       </c>
       <c r="E82" t="n">
-        <v>50.1344146437851</v>
+        <v>50.026157420376</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>17597.3139458691</v>
+        <v>18016.8407006399</v>
       </c>
       <c r="D83" t="n">
-        <v>3313.73021126561</v>
+        <v>3894.01881905287</v>
       </c>
       <c r="E83" t="n">
-        <v>16120.9392740231</v>
+        <v>16523.7007896955</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>1.05092524859184</v>
+        <v>1.05469140779774</v>
       </c>
       <c r="D84" t="n">
-        <v>1.02026206475361</v>
+        <v>0.914267887166736</v>
       </c>
       <c r="E84" t="n">
-        <v>0.813169137868981</v>
+        <v>0.794641401912769</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2151,13 +2151,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>0.276793538857251</v>
+        <v>0.24217456152966</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0652608768711537</v>
+        <v>0.0806244063594967</v>
       </c>
       <c r="E85" t="n">
-        <v>0.273365947200889</v>
+        <v>0.23721758226998</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -2171,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>64.6211797590204</v>
+        <v>64.6208969458595</v>
       </c>
       <c r="D86" t="n">
-        <v>39.14882297025</v>
+        <v>39.1482286396898</v>
       </c>
       <c r="E86" t="n">
-        <v>60.375786960892</v>
+        <v>60.3754522281646</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -2191,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>20219.428257526</v>
+        <v>20219.4272268577</v>
       </c>
       <c r="D87" t="n">
-        <v>1675.47395986083</v>
+        <v>1675.44546140324</v>
       </c>
       <c r="E87" t="n">
-        <v>18470.3979757538</v>
+        <v>18470.3966046803</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -2211,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>4.11246722772692</v>
+        <v>4.11247376163701</v>
       </c>
       <c r="D88" t="n">
-        <v>94.7687607246115</v>
+        <v>94.7684399024812</v>
       </c>
       <c r="E88" t="n">
-        <v>4.42305560891167</v>
+        <v>4.42305623057043</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -2231,13 +2231,13 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0441235549960468</v>
+        <v>0.0441234928576633</v>
       </c>
       <c r="D89" t="n">
         <v>0.0730707706520285</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04410570256816</v>
+        <v>0.0441056411738788</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>31.4773398564384</v>
+        <v>32.2088676211981</v>
       </c>
       <c r="D90" t="n">
-        <v>30.7546957116524</v>
+        <v>52.8872399275859</v>
       </c>
       <c r="E90" t="n">
-        <v>31.3459500119319</v>
+        <v>35.9685716769049</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>15507.3641207862</v>
+        <v>15873.0967847632</v>
       </c>
       <c r="D91" t="n">
-        <v>1509.22571426981</v>
+        <v>4815.95997282927</v>
       </c>
       <c r="E91" t="n">
-        <v>14041.6931195023</v>
+        <v>14503.8670541403</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.64714928189173</v>
+        <v>0.661847297493104</v>
       </c>
       <c r="D92" t="n">
-        <v>1.27991395206536</v>
+        <v>2.125017448882</v>
       </c>
       <c r="E92" t="n">
-        <v>0.968233480978818</v>
+        <v>1.08093239872838</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.716606488377971</v>
+        <v>0.689488399731341</v>
       </c>
       <c r="D93" t="n">
-        <v>0.000548168956154107</v>
+        <v>0.0498065725314714</v>
       </c>
       <c r="E93" t="n">
-        <v>0.713915594565238</v>
+        <v>0.644015593361726</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2331,13 +2331,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>109.185647119093</v>
+        <v>109.188911599794</v>
       </c>
       <c r="D94" t="n">
-        <v>142.304225075548</v>
+        <v>138.775781149982</v>
       </c>
       <c r="E94" t="n">
-        <v>114.705410111836</v>
+        <v>114.120056524826</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2351,13 +2351,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>23260.4753128358</v>
+        <v>23260.4731304106</v>
       </c>
       <c r="D95" t="n">
-        <v>7222.19824572836</v>
+        <v>7065.66232882725</v>
       </c>
       <c r="E95" t="n">
-        <v>21437.5399179252</v>
+        <v>21428.8420724568</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -2371,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.79772624057829</v>
+        <v>1.79774206940172</v>
       </c>
       <c r="D96" t="n">
-        <v>0.716399615327434</v>
+        <v>0.808533101906408</v>
       </c>
       <c r="E96" t="n">
-        <v>1.34415789288211</v>
+        <v>1.38368167373969</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -2391,13 +2391,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>0.000820173370036134</v>
+        <v>0.00082019000890631</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0113974292768979</v>
+        <v>0.000947157330150178</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00104869985409355</v>
+        <v>0.00100653525394555</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -2891,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>10.2424753327842</v>
+        <v>6.60025741835826</v>
       </c>
       <c r="D122" t="n">
-        <v>20.0924059763276</v>
+        <v>15.161848864694</v>
       </c>
       <c r="E122" t="n">
-        <v>12.0333718134284</v>
+        <v>8.15691040860113</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -2911,13 +2911,13 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>348.155901102192</v>
+        <v>184.589071673855</v>
       </c>
       <c r="D123" t="n">
-        <v>358.367036105116</v>
+        <v>280.498824091298</v>
       </c>
       <c r="E123" t="n">
-        <v>350.034627947273</v>
+        <v>205.3859579749</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>1.8857402906226</v>
+        <v>0.966375102400912</v>
       </c>
       <c r="D124" t="n">
-        <v>28.8542062808764</v>
+        <v>14.0681874724154</v>
       </c>
       <c r="E124" t="n">
-        <v>2.43377918690596</v>
+        <v>1.27859539313285</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -2951,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.79075006916313</v>
+        <v>0.937764813425984</v>
       </c>
       <c r="D125" t="n">
-        <v>0.179499091665087</v>
+        <v>0.0217918575160958</v>
       </c>
       <c r="E125" t="n">
-        <v>0.796566658326405</v>
+        <v>0.926443111282644</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -2971,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>12.0604815502284</v>
+        <v>10.6281048511773</v>
       </c>
       <c r="D126" t="n">
-        <v>16.9346156832303</v>
+        <v>15.6669483493022</v>
       </c>
       <c r="E126" t="n">
-        <v>12.8728372390621</v>
+        <v>11.4679121008648</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -2991,13 +2991,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>399.290009462396</v>
+        <v>357.7573139655</v>
       </c>
       <c r="D127" t="n">
-        <v>294.713840709491</v>
+        <v>287.442955919732</v>
       </c>
       <c r="E127" t="n">
-        <v>383.844327427179</v>
+        <v>347.029040904581</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -3011,13 +3011,13 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.931720870045736</v>
+        <v>1.00754068960236</v>
       </c>
       <c r="D128" t="n">
-        <v>1.21432905727554</v>
+        <v>1.51792715062102</v>
       </c>
       <c r="E128" t="n">
-        <v>1.34942412772298</v>
+        <v>1.46169885210551</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -3031,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>0.863918790832359</v>
+        <v>0.886433259995757</v>
       </c>
       <c r="D129" t="n">
-        <v>0.139138765620475</v>
+        <v>0.136727119310148</v>
       </c>
       <c r="E129" t="n">
-        <v>0.87062188591383</v>
+        <v>0.891404427628244</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -3051,13 +3051,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>10.1329936380578</v>
+        <v>7.02410097117735</v>
       </c>
       <c r="D130" t="n">
-        <v>13.7606197104154</v>
+        <v>13.1750619924609</v>
       </c>
       <c r="E130" t="n">
-        <v>10.7375979834507</v>
+        <v>8.04926114139128</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -3071,13 +3071,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>427.03502007372</v>
+        <v>260.905307245514</v>
       </c>
       <c r="D131" t="n">
-        <v>270.564732945486</v>
+        <v>277.102775612238</v>
       </c>
       <c r="E131" t="n">
-        <v>405.174821643011</v>
+        <v>263.673992206407</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -3091,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>0.86558738177227</v>
+        <v>0.706194992767766</v>
       </c>
       <c r="D132" t="n">
-        <v>2.46278119571301</v>
+        <v>2.22067555978506</v>
       </c>
       <c r="E132" t="n">
-        <v>1.34987242364995</v>
+        <v>0.969436424957753</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -3111,13 +3111,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>0.850829427000692</v>
+        <v>0.939894743463776</v>
       </c>
       <c r="D133" t="n">
-        <v>0.045240167274178</v>
+        <v>0.0931294431547919</v>
       </c>
       <c r="E133" t="n">
-        <v>0.862270564295849</v>
+        <v>0.938730773799035</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -3131,13 +3131,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>11.064475674024</v>
+        <v>7.94248259302114</v>
       </c>
       <c r="D134" t="n">
-        <v>17.3405312810098</v>
+        <v>44.1053463602758</v>
       </c>
       <c r="E134" t="n">
-        <v>12.110484941855</v>
+        <v>13.9696265542303</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -3151,13 +3151,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>435.035471142547</v>
+        <v>271.671488171407</v>
       </c>
       <c r="D135" t="n">
-        <v>371.816215167943</v>
+        <v>666.194358019053</v>
       </c>
       <c r="E135" t="n">
-        <v>425.152247950249</v>
+        <v>368.067455339994</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
@@ -3171,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>1.30740951236076</v>
+        <v>0.586281330994278</v>
       </c>
       <c r="D136" t="n">
-        <v>2.96801331211143</v>
+        <v>3.88959045589701</v>
       </c>
       <c r="E136" t="n">
-        <v>1.42572719472835</v>
+        <v>0.853764934298541</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
@@ -3191,13 +3191,13 @@
         <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>0.841536708566809</v>
+        <v>0.935633795943672</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0110543079614046</v>
+        <v>0.0461246768811703</v>
       </c>
       <c r="E137" t="n">
-        <v>0.849941334358278</v>
+        <v>0.906271746059762</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>9.48608916488119</v>
+        <v>5.78338541658653</v>
       </c>
       <c r="D138" t="n">
-        <v>13.9384059722902</v>
+        <v>15.8395696711777</v>
       </c>
       <c r="E138" t="n">
-        <v>10.2956013116828</v>
+        <v>7.61178255378494</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>355.248948194735</v>
+        <v>187.25707449359</v>
       </c>
       <c r="D139" t="n">
-        <v>268.637808564616</v>
+        <v>344.951227361946</v>
       </c>
       <c r="E139" t="n">
-        <v>341.140984068303</v>
+        <v>224.331249808708</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.758519977491299</v>
+        <v>0.566640425745045</v>
       </c>
       <c r="D140" t="n">
-        <v>2.68300070995896</v>
+        <v>2.38657526667809</v>
       </c>
       <c r="E140" t="n">
-        <v>1.42524188026278</v>
+        <v>0.875760344865292</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7871190007481</v>
+        <v>0.935373215846384</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0245959722327487</v>
+        <v>0.00214121506174049</v>
       </c>
       <c r="E141" t="n">
-        <v>0.804356766244886</v>
+        <v>0.915474800734398</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3291,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>14.8535132572335</v>
+        <v>11.0765418615698</v>
       </c>
       <c r="D142" t="n">
-        <v>30.7516076359799</v>
+        <v>35.1765351455059</v>
       </c>
       <c r="E142" t="n">
-        <v>17.5031956536912</v>
+        <v>15.0932074088925</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -3311,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="C143" t="n">
-        <v>520.214575308238</v>
+        <v>407.920675285016</v>
       </c>
       <c r="D143" t="n">
-        <v>512.197188443106</v>
+        <v>559.823115043179</v>
       </c>
       <c r="E143" t="n">
-        <v>518.886946849484</v>
+        <v>436.920722549978</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -3331,13 +3331,13 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>1.13609742920994</v>
+        <v>1.06342855448248</v>
       </c>
       <c r="D144" t="n">
-        <v>2.3602404749909</v>
+        <v>2.54162737698276</v>
       </c>
       <c r="E144" t="n">
-        <v>1.10839823074136</v>
+        <v>0.983786411564707</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -3351,13 +3351,13 @@
         <v>11</v>
       </c>
       <c r="C145" t="n">
-        <v>0.80819823360651</v>
+        <v>0.880631161043181</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0333901129095474</v>
+        <v>0.0202510639361748</v>
       </c>
       <c r="E145" t="n">
-        <v>0.821468770657557</v>
+        <v>0.879622727568515</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -3371,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>10.30509298241</v>
+        <v>10.3172437623986</v>
       </c>
       <c r="D146" t="n">
-        <v>13.9408606848093</v>
+        <v>13.9254191821199</v>
       </c>
       <c r="E146" t="n">
-        <v>10.9661416555735</v>
+        <v>10.9732756568933</v>
       </c>
       <c r="F146" t="s">
         <v>22</v>
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>132.616027083172</v>
+        <v>132.633830751523</v>
       </c>
       <c r="D147" t="n">
-        <v>144.619751338927</v>
+        <v>144.472818473356</v>
       </c>
       <c r="E147" t="n">
-        <v>134.878005723889</v>
+        <v>134.863698226861</v>
       </c>
       <c r="F147" t="s">
         <v>22</v>
@@ -3411,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0.691444211251289</v>
+        <v>0.691872067148146</v>
       </c>
       <c r="D148" t="n">
-        <v>1.18295196099274</v>
+        <v>1.18572882714709</v>
       </c>
       <c r="E148" t="n">
-        <v>0.754208993115321</v>
+        <v>0.754627813273344</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
@@ -3431,13 +3431,13 @@
         <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>0.868872532668284</v>
+        <v>0.868832506223981</v>
       </c>
       <c r="D149" t="n">
-        <v>0.664935613369133</v>
+        <v>0.665607856826706</v>
       </c>
       <c r="E149" t="n">
-        <v>0.858664456976345</v>
+        <v>0.858704322662395</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -3451,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>12.0467906720955</v>
+        <v>12.0373486351914</v>
       </c>
       <c r="D150" t="n">
-        <v>18.9151017924643</v>
+        <v>18.8895142082473</v>
       </c>
       <c r="E150" t="n">
-        <v>13.1915091921569</v>
+        <v>13.1793762307008</v>
       </c>
       <c r="F150" t="s">
         <v>22</v>
@@ -3471,13 +3471,13 @@
         <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>157.064941226468</v>
+        <v>156.997720603042</v>
       </c>
       <c r="D151" t="n">
-        <v>180.312548886239</v>
+        <v>180.260489058733</v>
       </c>
       <c r="E151" t="n">
-        <v>161.172575261333</v>
+        <v>161.108278955721</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -3491,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0.704479311853829</v>
+        <v>0.704009870209795</v>
       </c>
       <c r="D152" t="n">
-        <v>0.853622363338644</v>
+        <v>0.853066883929977</v>
       </c>
       <c r="E152" t="n">
-        <v>0.770054189475296</v>
+        <v>0.769272865918531</v>
       </c>
       <c r="F152" t="s">
         <v>22</v>
@@ -3511,13 +3511,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>0.835131259334349</v>
+        <v>0.835255956132524</v>
       </c>
       <c r="D153" t="n">
-        <v>0.708032877795019</v>
+        <v>0.707944311874919</v>
       </c>
       <c r="E153" t="n">
-        <v>0.822337320837098</v>
+        <v>0.822439426012456</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -3531,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>7.61580235715935</v>
+        <v>7.59791940627677</v>
       </c>
       <c r="D154" t="n">
-        <v>13.9198168968084</v>
+        <v>13.916409646183</v>
       </c>
       <c r="E154" t="n">
-        <v>8.66647144710086</v>
+        <v>8.6510011129278</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -3551,13 +3551,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>103.339821240978</v>
+        <v>103.397031678109</v>
       </c>
       <c r="D155" t="n">
-        <v>155.987952587029</v>
+        <v>156.152350890852</v>
       </c>
       <c r="E155" t="n">
-        <v>113.818447994222</v>
+        <v>113.899288473018</v>
       </c>
       <c r="F155" t="s">
         <v>22</v>
@@ -3571,13 +3571,13 @@
         <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>0.435533969872455</v>
+        <v>0.434564260562879</v>
       </c>
       <c r="D156" t="n">
-        <v>0.954955158959281</v>
+        <v>0.952861125571841</v>
       </c>
       <c r="E156" t="n">
-        <v>0.536344159438438</v>
+        <v>0.535806893749036</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -3591,13 +3591,13 @@
         <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>0.929083628684156</v>
+        <v>0.9290049439542</v>
       </c>
       <c r="D157" t="n">
-        <v>0.668928079993579</v>
+        <v>0.671010518778754</v>
       </c>
       <c r="E157" t="n">
-        <v>0.910806311052979</v>
+        <v>0.910677122519775</v>
       </c>
       <c r="F157" t="s">
         <v>22</v>
@@ -3611,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>8.21998885788454</v>
+        <v>8.22130023527742</v>
       </c>
       <c r="D158" t="n">
-        <v>13.7457058990002</v>
+        <v>13.7424563027464</v>
       </c>
       <c r="E158" t="n">
-        <v>9.14094169807048</v>
+        <v>9.14149291318892</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -3631,13 +3631,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>108.717063161153</v>
+        <v>108.734113557976</v>
       </c>
       <c r="D159" t="n">
-        <v>145.17844556637</v>
+        <v>145.154624993304</v>
       </c>
       <c r="E159" t="n">
-        <v>115.595400837719</v>
+        <v>115.603779071117</v>
       </c>
       <c r="F159" t="s">
         <v>22</v>
@@ -3651,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.411132981826343</v>
+        <v>0.411161028781405</v>
       </c>
       <c r="D160" t="n">
-        <v>0.81875952508873</v>
+        <v>0.818619505006825</v>
       </c>
       <c r="E160" t="n">
-        <v>0.462912110877411</v>
+        <v>0.462913549154414</v>
       </c>
       <c r="F160" t="s">
         <v>22</v>
@@ -3671,13 +3671,13 @@
         <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>0.92661854988371</v>
+        <v>0.926589106461147</v>
       </c>
       <c r="D161" t="n">
-        <v>0.731117982168723</v>
+        <v>0.731124959626223</v>
       </c>
       <c r="E161" t="n">
-        <v>0.914693089123834</v>
+        <v>0.914673165654927</v>
       </c>
       <c r="F161" t="s">
         <v>22</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>7.22858412818637</v>
+        <v>7.22797838771571</v>
       </c>
       <c r="D162" t="n">
-        <v>12.8079609918895</v>
+        <v>12.8002761418172</v>
       </c>
       <c r="E162" t="n">
-        <v>8.24301628522331</v>
+        <v>8.24112343391598</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>93.8443792741966</v>
+        <v>93.8626429714563</v>
       </c>
       <c r="D163" t="n">
-        <v>146.242784315503</v>
+        <v>146.314155244011</v>
       </c>
       <c r="E163" t="n">
-        <v>105.328409195816</v>
+        <v>105.359741215868</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.428691065731952</v>
+        <v>0.428665567078689</v>
       </c>
       <c r="D164" t="n">
-        <v>0.882704796589842</v>
+        <v>0.881292496549736</v>
       </c>
       <c r="E164" t="n">
-        <v>0.51238474184842</v>
+        <v>0.512321233251191</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.934479849512973</v>
+        <v>0.934441960137514</v>
       </c>
       <c r="D165" t="n">
-        <v>0.699019340932792</v>
+        <v>0.699397962733133</v>
       </c>
       <c r="E165" t="n">
-        <v>0.91441622688615</v>
+        <v>0.914349053099686</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -3771,13 +3771,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>12.658686928765</v>
+        <v>12.6575407178341</v>
       </c>
       <c r="D166" t="n">
-        <v>17.3991499698967</v>
+        <v>17.399361962659</v>
       </c>
       <c r="E166" t="n">
-        <v>13.4487641022869</v>
+        <v>13.4478442586383</v>
       </c>
       <c r="F166" t="s">
         <v>22</v>
@@ -3791,13 +3791,13 @@
         <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>205.976684777315</v>
+        <v>205.974269469969</v>
       </c>
       <c r="D167" t="n">
-        <v>181.169107748343</v>
+        <v>181.170282161164</v>
       </c>
       <c r="E167" t="n">
-        <v>202.053713552279</v>
+        <v>202.051837225332</v>
       </c>
       <c r="F167" t="s">
         <v>22</v>
@@ -3811,13 +3811,13 @@
         <v>10</v>
       </c>
       <c r="C168" t="n">
-        <v>0.733135772717906</v>
+        <v>0.73305381014195</v>
       </c>
       <c r="D168" t="n">
-        <v>0.878416993879367</v>
+        <v>0.878435930785485</v>
       </c>
       <c r="E168" t="n">
-        <v>0.695516719632042</v>
+        <v>0.695450365657215</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3831,13 +3831,13 @@
         <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>0.77758666516722</v>
+        <v>0.777582198439127</v>
       </c>
       <c r="D169" t="n">
-        <v>0.687565293979018</v>
+        <v>0.687525859058227</v>
       </c>
       <c r="E169" t="n">
-        <v>0.779396771244403</v>
+        <v>0.779391052272196</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
@@ -4331,13 +4331,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>5.0921693705464</v>
+        <v>5.10758144051518</v>
       </c>
       <c r="D194" t="n">
-        <v>8.26825704396613</v>
+        <v>8.26323199980387</v>
       </c>
       <c r="E194" t="n">
-        <v>5.66963985662272</v>
+        <v>5.68133608765858</v>
       </c>
       <c r="F194" t="s">
         <v>24</v>
@@ -4351,13 +4351,13 @@
         <v>9</v>
       </c>
       <c r="C195" t="n">
-        <v>2281.71500150339</v>
+        <v>2283.06011994935</v>
       </c>
       <c r="D195" t="n">
-        <v>4430.48237094975</v>
+        <v>4428.1079033532</v>
       </c>
       <c r="E195" t="n">
-        <v>2797.95961715227</v>
+        <v>2798.17393067184</v>
       </c>
       <c r="F195" t="s">
         <v>24</v>
@@ -4371,13 +4371,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>0.788222486035047</v>
+        <v>0.788637035143115</v>
       </c>
       <c r="D196" t="n">
-        <v>1.57702492366623</v>
+        <v>1.56558369442181</v>
       </c>
       <c r="E196" t="n">
-        <v>0.930748193246423</v>
+        <v>0.929387344874348</v>
       </c>
       <c r="F196" t="s">
         <v>24</v>
@@ -4391,13 +4391,13 @@
         <v>11</v>
       </c>
       <c r="C197" t="n">
-        <v>0.844617578662438</v>
+        <v>0.844521198387898</v>
       </c>
       <c r="D197" t="n">
-        <v>0.421447682319011</v>
+        <v>0.420404439859366</v>
       </c>
       <c r="E197" t="n">
-        <v>0.851286590413861</v>
+        <v>0.851118175392803</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
@@ -4411,13 +4411,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>4.0865415920205</v>
+        <v>4.04140664317872</v>
       </c>
       <c r="D198" t="n">
-        <v>8.17309910759863</v>
+        <v>8.04018622579467</v>
       </c>
       <c r="E198" t="n">
-        <v>4.76763451128352</v>
+        <v>4.70786990694804</v>
       </c>
       <c r="F198" t="s">
         <v>24</v>
@@ -4431,13 +4431,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>1760.16959915966</v>
+        <v>1745.29119707308</v>
       </c>
       <c r="D199" t="n">
-        <v>4295.96344311743</v>
+        <v>4232.61619696776</v>
       </c>
       <c r="E199" t="n">
-        <v>2378.59506829945</v>
+        <v>2350.36332949248</v>
       </c>
       <c r="F199" t="s">
         <v>24</v>
@@ -4451,13 +4451,13 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>0.417742583418822</v>
+        <v>0.411353844690814</v>
       </c>
       <c r="D200" t="n">
-        <v>1.70613103571994</v>
+        <v>1.6547826971844</v>
       </c>
       <c r="E200" t="n">
-        <v>0.762503428741442</v>
+        <v>0.742462951548481</v>
       </c>
       <c r="F200" t="s">
         <v>24</v>
@@ -4471,13 +4471,13 @@
         <v>11</v>
       </c>
       <c r="C201" t="n">
-        <v>0.933142378243616</v>
+        <v>0.934244474196764</v>
       </c>
       <c r="D201" t="n">
-        <v>0.76435213654474</v>
+        <v>0.760762337701985</v>
       </c>
       <c r="E201" t="n">
-        <v>0.925609172874373</v>
+        <v>0.926745991111149</v>
       </c>
       <c r="F201" t="s">
         <v>24</v>
@@ -4491,13 +4491,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>4.53145614838863</v>
+        <v>4.53342756865416</v>
       </c>
       <c r="D202" t="n">
-        <v>5.02065783934691</v>
+        <v>5.02792289858641</v>
       </c>
       <c r="E202" t="n">
-        <v>4.61298976354834</v>
+        <v>4.6158434569762</v>
       </c>
       <c r="F202" t="s">
         <v>24</v>
@@ -4511,13 +4511,13 @@
         <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>1901.53698731992</v>
+        <v>1901.95161134435</v>
       </c>
       <c r="D203" t="n">
-        <v>2820.47627002564</v>
+        <v>2834.64922726689</v>
       </c>
       <c r="E203" t="n">
-        <v>2083.03868425058</v>
+        <v>2086.55760768471</v>
       </c>
       <c r="F203" t="s">
         <v>24</v>
@@ -4531,13 +4531,13 @@
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.460036065517298</v>
+        <v>0.459584779891548</v>
       </c>
       <c r="D204" t="n">
-        <v>1.047744572245</v>
+        <v>1.04635288324518</v>
       </c>
       <c r="E204" t="n">
-        <v>0.703721199190023</v>
+        <v>0.702534029049993</v>
       </c>
       <c r="F204" t="s">
         <v>24</v>
@@ -4551,13 +4551,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="n">
-        <v>0.922066978892016</v>
+        <v>0.922073351919012</v>
       </c>
       <c r="D205" t="n">
-        <v>0.779865848839078</v>
+        <v>0.779750787520202</v>
       </c>
       <c r="E205" t="n">
-        <v>0.933621554122431</v>
+        <v>0.933502064984368</v>
       </c>
       <c r="F205" t="s">
         <v>24</v>
@@ -4571,13 +4571,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>4.31314260539021</v>
+        <v>4.31096033950744</v>
       </c>
       <c r="D206" t="n">
-        <v>5.6468104490727</v>
+        <v>5.62210757905753</v>
       </c>
       <c r="E206" t="n">
-        <v>4.53542057933729</v>
+        <v>4.52948487943245</v>
       </c>
       <c r="F206" t="s">
         <v>24</v>
@@ -4591,13 +4591,13 @@
         <v>9</v>
       </c>
       <c r="C207" t="n">
-        <v>1947.43564667018</v>
+        <v>1950.17865185756</v>
       </c>
       <c r="D207" t="n">
-        <v>3075.4298691846</v>
+        <v>3064.16442975724</v>
       </c>
       <c r="E207" t="n">
-        <v>2176.41895744214</v>
+        <v>2175.81737604493</v>
       </c>
       <c r="F207" t="s">
         <v>24</v>
@@ -4611,13 +4611,13 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.589770048227321</v>
+        <v>0.587846665515918</v>
       </c>
       <c r="D208" t="n">
-        <v>0.932312476627589</v>
+        <v>0.927499322804837</v>
       </c>
       <c r="E208" t="n">
-        <v>0.649788528706284</v>
+        <v>0.647260702027029</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
@@ -4631,13 +4631,13 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>0.918379351417682</v>
+        <v>0.918195946867848</v>
       </c>
       <c r="D209" t="n">
-        <v>0.772060348461235</v>
+        <v>0.771719477897158</v>
       </c>
       <c r="E209" t="n">
-        <v>0.928562996947818</v>
+        <v>0.928542729318417</v>
       </c>
       <c r="F209" t="s">
         <v>24</v>
@@ -4651,13 +4651,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.21125162419451</v>
+        <v>4.20531332219108</v>
       </c>
       <c r="D210" t="n">
-        <v>5.10248165785524</v>
+        <v>5.10871309187079</v>
       </c>
       <c r="E210" t="n">
-        <v>4.37329344849646</v>
+        <v>4.36956782576921</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4671,13 +4671,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1844.05545315363</v>
+        <v>1842.27114674923</v>
       </c>
       <c r="D211" t="n">
-        <v>2845.1339459684</v>
+        <v>2852.31128803928</v>
       </c>
       <c r="E211" t="n">
-        <v>2062.53240128277</v>
+        <v>2063.03012296906</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4691,13 +4691,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.439786752251999</v>
+        <v>0.43881062049537</v>
       </c>
       <c r="D212" t="n">
-        <v>1.06975404072205</v>
+        <v>1.05076491118608</v>
       </c>
       <c r="E212" t="n">
-        <v>0.717613640111144</v>
+        <v>0.713666309133752</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4711,13 +4711,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.898768219348626</v>
+        <v>0.899041030617775</v>
       </c>
       <c r="D213" t="n">
-        <v>0.745234018363049</v>
+        <v>0.742711312365331</v>
       </c>
       <c r="E213" t="n">
-        <v>0.916914190652878</v>
+        <v>0.916808399293756</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -4731,13 +4731,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>5.83453927698649</v>
+        <v>5.83953448203722</v>
       </c>
       <c r="D214" t="n">
-        <v>4.98588244850653</v>
+        <v>4.78816471969654</v>
       </c>
       <c r="E214" t="n">
-        <v>5.69309647223983</v>
+        <v>5.66430618831377</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4751,13 +4751,13 @@
         <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>2460.47774061794</v>
+        <v>2461.39741857321</v>
       </c>
       <c r="D215" t="n">
-        <v>2712.75920602904</v>
+        <v>2640.20769652857</v>
       </c>
       <c r="E215" t="n">
-        <v>2504.29018786685</v>
+        <v>2492.09025189709</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4771,13 +4771,13 @@
         <v>10</v>
       </c>
       <c r="C216" t="n">
-        <v>0.574762534807201</v>
+        <v>0.574499826397568</v>
       </c>
       <c r="D216" t="n">
-        <v>1.11563518212802</v>
+        <v>1.01409983473036</v>
       </c>
       <c r="E216" t="n">
-        <v>0.886483839115022</v>
+        <v>0.871768101650497</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4791,13 +4791,13 @@
         <v>11</v>
       </c>
       <c r="C217" t="n">
-        <v>0.869750922775877</v>
+        <v>0.869733130096029</v>
       </c>
       <c r="D217" t="n">
-        <v>0.801878098444019</v>
+        <v>0.801100374460285</v>
       </c>
       <c r="E217" t="n">
-        <v>0.904599744603508</v>
+        <v>0.905260965628443</v>
       </c>
       <c r="F217" t="s">
         <v>24</v>
@@ -5214,10 +5214,10 @@
         <v>6.27811202085642</v>
       </c>
       <c r="D238" t="n">
-        <v>4.25398190815014</v>
+        <v>4.45335699344763</v>
       </c>
       <c r="E238" t="n">
-        <v>5.94075700207204</v>
+        <v>5.97398618295496</v>
       </c>
       <c r="F238" t="s">
         <v>25</v>
@@ -5234,10 +5234,10 @@
         <v>1329.26400739448</v>
       </c>
       <c r="D239" t="n">
-        <v>1194.39898361155</v>
+        <v>1221.63827804693</v>
       </c>
       <c r="E239" t="n">
-        <v>1307.75271227811</v>
+        <v>1311.93966382869</v>
       </c>
       <c r="F239" t="s">
         <v>25</v>
@@ -5254,10 +5254,10 @@
         <v>0.595567774243519</v>
       </c>
       <c r="D240" t="n">
-        <v>0.738109836713071</v>
+        <v>0.816085157125544</v>
       </c>
       <c r="E240" t="n">
-        <v>1.00647640045115</v>
+        <v>1.02378347287178</v>
       </c>
       <c r="F240" t="s">
         <v>25</v>
@@ -5274,10 +5274,10 @@
         <v>0.877454891420691</v>
       </c>
       <c r="D241" t="n">
-        <v>0.710381389427174</v>
+        <v>0.691838360187331</v>
       </c>
       <c r="E241" t="n">
-        <v>0.89241627625135</v>
+        <v>0.89188410431332</v>
       </c>
       <c r="F241" t="s">
         <v>25</v>
@@ -5291,13 +5291,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="n">
-        <v>3.57132472081566</v>
+        <v>3.60135147451932</v>
       </c>
       <c r="D242" t="n">
-        <v>18.367194144371</v>
+        <v>18.4264667739406</v>
       </c>
       <c r="E242" t="n">
-        <v>6.26148279782572</v>
+        <v>6.29682698350502</v>
       </c>
       <c r="F242" t="s">
         <v>26</v>
@@ -5311,13 +5311,13 @@
         <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>430.51604051095</v>
+        <v>435.603485740147</v>
       </c>
       <c r="D243" t="n">
-        <v>1974.29392961806</v>
+        <v>1974.72228612177</v>
       </c>
       <c r="E243" t="n">
-        <v>927.546597275381</v>
+        <v>929.653395123574</v>
       </c>
       <c r="F243" t="s">
         <v>26</v>
@@ -5331,13 +5331,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="n">
-        <v>0.569021943510659</v>
+        <v>0.580634825157005</v>
       </c>
       <c r="D244" t="n">
-        <v>16.7709652700135</v>
+        <v>15.9732716146648</v>
       </c>
       <c r="E244" t="n">
-        <v>1.23119286451452</v>
+        <v>1.24726323517452</v>
       </c>
       <c r="F244" t="s">
         <v>26</v>
@@ -5351,13 +5351,13 @@
         <v>11</v>
       </c>
       <c r="C245" t="n">
-        <v>0.929553733518032</v>
+        <v>0.927840241691648</v>
       </c>
       <c r="D245" t="n">
-        <v>0.114723726213655</v>
+        <v>0.134083234156018</v>
       </c>
       <c r="E245" t="n">
-        <v>0.716243303400218</v>
+        <v>0.715649511275705</v>
       </c>
       <c r="F245" t="s">
         <v>26</v>
@@ -5371,13 +5371,13 @@
         <v>7</v>
       </c>
       <c r="C246" t="n">
-        <v>4.06813404361717</v>
+        <v>4.05119778560293</v>
       </c>
       <c r="D246" t="n">
-        <v>26.9939761939278</v>
+        <v>27.300761005882</v>
       </c>
       <c r="E246" t="n">
-        <v>7.88910773533561</v>
+        <v>7.92612498898277</v>
       </c>
       <c r="F246" t="s">
         <v>26</v>
@@ -5391,13 +5391,13 @@
         <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>473.350115199931</v>
+        <v>471.530424498494</v>
       </c>
       <c r="D247" t="n">
-        <v>3651.42945394977</v>
+        <v>3697.52442643206</v>
       </c>
       <c r="E247" t="n">
-        <v>1552.05448330972</v>
+        <v>1569.68104988457</v>
       </c>
       <c r="F247" t="s">
         <v>26</v>
@@ -5411,13 +5411,13 @@
         <v>10</v>
       </c>
       <c r="C248" t="n">
-        <v>0.474587326080453</v>
+        <v>0.471980014065323</v>
       </c>
       <c r="D248" t="n">
-        <v>5.11276295267055</v>
+        <v>5.17891633925492</v>
       </c>
       <c r="E248" t="n">
-        <v>1.37183124924217</v>
+        <v>1.38025358615694</v>
       </c>
       <c r="F248" t="s">
         <v>26</v>
@@ -5431,13 +5431,13 @@
         <v>11</v>
       </c>
       <c r="C249" t="n">
-        <v>0.919826045436724</v>
+        <v>0.920135160132448</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0859849482663644</v>
+        <v>0.0838073029072508</v>
       </c>
       <c r="E249" t="n">
-        <v>0.601926884991641</v>
+        <v>0.600156033400464</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -5451,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="n">
-        <v>4.65762640839326</v>
+        <v>4.65935890483995</v>
       </c>
       <c r="D250" t="n">
-        <v>25.2976023536114</v>
+        <v>25.2891580920523</v>
       </c>
       <c r="E250" t="n">
-        <v>8.09762239926296</v>
+        <v>8.09765876937534</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -5471,13 +5471,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>542.276845585323</v>
+        <v>542.294784906627</v>
       </c>
       <c r="D251" t="n">
-        <v>3375.32791961303</v>
+        <v>3374.10164524124</v>
       </c>
       <c r="E251" t="n">
-        <v>1464.1925790465</v>
+        <v>1463.72698280248</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -5491,13 +5491,13 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>0.542508276212018</v>
+        <v>0.542693424968086</v>
       </c>
       <c r="D252" t="n">
-        <v>5.2122394916366</v>
+        <v>5.21160168507718</v>
       </c>
       <c r="E252" t="n">
-        <v>1.42462149121229</v>
+        <v>1.4233264247881</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -5511,13 +5511,13 @@
         <v>11</v>
       </c>
       <c r="C253" t="n">
-        <v>0.896664885550942</v>
+        <v>0.896670572809758</v>
       </c>
       <c r="D253" t="n">
-        <v>0.107157729776813</v>
+        <v>0.107307687189529</v>
       </c>
       <c r="E253" t="n">
-        <v>0.633559207835466</v>
+        <v>0.633669726887629</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -5531,13 +5531,13 @@
         <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>4.33036531560831</v>
+        <v>4.32830115683953</v>
       </c>
       <c r="D254" t="n">
-        <v>12.8103563278113</v>
+        <v>12.8031630319568</v>
       </c>
       <c r="E254" t="n">
-        <v>5.74369715097548</v>
+        <v>5.74077813602575</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -5551,13 +5551,13 @@
         <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>537.57796168324</v>
+        <v>537.455427306114</v>
       </c>
       <c r="D255" t="n">
-        <v>1621.11307148991</v>
+        <v>1620.16203532701</v>
       </c>
       <c r="E255" t="n">
-        <v>823.909169244703</v>
+        <v>823.530681721386</v>
       </c>
       <c r="F255" t="s">
         <v>26</v>
@@ -5571,13 +5571,13 @@
         <v>10</v>
       </c>
       <c r="C256" t="n">
-        <v>0.514809035493252</v>
+        <v>0.514554661707408</v>
       </c>
       <c r="D256" t="n">
-        <v>2.25719454959637</v>
+        <v>2.25593132934694</v>
       </c>
       <c r="E256" t="n">
-        <v>0.761504020294161</v>
+        <v>0.761077692474023</v>
       </c>
       <c r="F256" t="s">
         <v>26</v>
@@ -5591,13 +5591,13 @@
         <v>11</v>
       </c>
       <c r="C257" t="n">
-        <v>0.903409532592266</v>
+        <v>0.903446809101279</v>
       </c>
       <c r="D257" t="n">
-        <v>0.459196400546352</v>
+        <v>0.459509083138176</v>
       </c>
       <c r="E257" t="n">
-        <v>0.81056268234725</v>
+        <v>0.810677978818692</v>
       </c>
       <c r="F257" t="s">
         <v>26</v>
@@ -5611,13 +5611,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>3.92402747711692</v>
+        <v>3.92828370665647</v>
       </c>
       <c r="D258" t="n">
-        <v>14.7599292478883</v>
+        <v>14.8015813992964</v>
       </c>
       <c r="E258" t="n">
-        <v>5.89419143543898</v>
+        <v>5.90524692350009</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5631,13 +5631,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>453.024341727644</v>
+        <v>452.423089130839</v>
       </c>
       <c r="D259" t="n">
-        <v>1880.42781912099</v>
+        <v>1890.45363273082</v>
       </c>
       <c r="E259" t="n">
-        <v>900.459329939605</v>
+        <v>904.021808828775</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5651,13 +5651,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.477713519058962</v>
+        <v>0.478473504445832</v>
       </c>
       <c r="D260" t="n">
-        <v>3.4165170908372</v>
+        <v>3.50192849224625</v>
       </c>
       <c r="E260" t="n">
-        <v>1.0110501128736</v>
+        <v>1.01362830427976</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5671,13 +5671,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.920256136095936</v>
+        <v>0.920444976163817</v>
       </c>
       <c r="D261" t="n">
-        <v>0.272733257095652</v>
+        <v>0.264809513170266</v>
       </c>
       <c r="E261" t="n">
-        <v>0.778801269792054</v>
+        <v>0.777386146125301</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -5691,13 +5691,13 @@
         <v>7</v>
       </c>
       <c r="C262" t="n">
-        <v>5.79707999138739</v>
+        <v>5.79599629648422</v>
       </c>
       <c r="D262" t="n">
-        <v>26.3170457345341</v>
+        <v>26.5261038026461</v>
       </c>
       <c r="E262" t="n">
-        <v>9.21707428191183</v>
+        <v>9.25101421417787</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5711,13 +5711,13 @@
         <v>9</v>
       </c>
       <c r="C263" t="n">
-        <v>804.542063828537</v>
+        <v>804.535667617636</v>
       </c>
       <c r="D263" t="n">
-        <v>3530.05911439052</v>
+        <v>3554.49578828489</v>
       </c>
       <c r="E263" t="n">
-        <v>1617.49585334033</v>
+        <v>1626.38804877966</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5731,13 +5731,13 @@
         <v>10</v>
       </c>
       <c r="C264" t="n">
-        <v>0.6709894335389</v>
+        <v>0.670877679262385</v>
       </c>
       <c r="D264" t="n">
-        <v>5.21948452311754</v>
+        <v>5.32406910477002</v>
       </c>
       <c r="E264" t="n">
-        <v>1.42258309653817</v>
+        <v>1.43167030448618</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -5751,13 +5751,13 @@
         <v>11</v>
       </c>
       <c r="C265" t="n">
-        <v>0.782725202592921</v>
+        <v>0.782718039712578</v>
       </c>
       <c r="D265" t="n">
-        <v>0.10897522776067</v>
+        <v>0.110444902104524</v>
       </c>
       <c r="E265" t="n">
-        <v>0.576058793632457</v>
+        <v>0.574620866814265</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -6654,10 +6654,10 @@
         <v>6.30107880175211</v>
       </c>
       <c r="D310" t="n">
-        <v>5.43287694973074</v>
+        <v>5.39302037361567</v>
       </c>
       <c r="E310" t="n">
-        <v>6.15637849308188</v>
+        <v>6.14973573039603</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -6674,10 +6674,10 @@
         <v>10801.5480383561</v>
       </c>
       <c r="D311" t="n">
-        <v>6377.18328233762</v>
+        <v>6343.39079838465</v>
       </c>
       <c r="E311" t="n">
-        <v>10198.3304739967</v>
+        <v>10194.8173675452</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -6694,10 +6694,10 @@
         <v>0.756750248632185</v>
       </c>
       <c r="D312" t="n">
-        <v>0.780011236395799</v>
+        <v>0.780270079077429</v>
       </c>
       <c r="E312" t="n">
-        <v>0.79217974391</v>
+        <v>0.792382785698389</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6714,10 +6714,10 @@
         <v>0.70762011127897</v>
       </c>
       <c r="D313" t="n">
-        <v>0.652262489775044</v>
+        <v>0.660089767686177</v>
       </c>
       <c r="E313" t="n">
-        <v>0.742651252827748</v>
+        <v>0.743012033011923</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -7134,10 +7134,10 @@
         <v>28.1758405191222</v>
       </c>
       <c r="D334" t="n">
-        <v>12.9507643356152</v>
+        <v>11.6669215036308</v>
       </c>
       <c r="E334" t="n">
-        <v>25.638327821871</v>
+        <v>25.4243540165403</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -7154,10 +7154,10 @@
         <v>6676.57035182883</v>
       </c>
       <c r="D335" t="n">
-        <v>4102.3550416573</v>
+        <v>3692.6336990851</v>
       </c>
       <c r="E335" t="n">
-        <v>6320.76307632775</v>
+        <v>6278.5149776867</v>
       </c>
       <c r="F335" t="s">
         <v>29</v>
@@ -7174,10 +7174,10 @@
         <v>0.780108932804444</v>
       </c>
       <c r="D336" t="n">
-        <v>0.491187198743229</v>
+        <v>0.441847370223944</v>
       </c>
       <c r="E336" t="n">
-        <v>0.656862077355208</v>
+        <v>0.649451325663921</v>
       </c>
       <c r="F336" t="s">
         <v>29</v>
@@ -7194,10 +7194,10 @@
         <v>0.774700501882128</v>
       </c>
       <c r="D337" t="n">
-        <v>0.798880620687587</v>
+        <v>0.841372868689476</v>
       </c>
       <c r="E337" t="n">
-        <v>0.774206014875208</v>
+        <v>0.776958323760399</v>
       </c>
       <c r="F337" t="s">
         <v>29</v>
@@ -7614,10 +7614,10 @@
         <v>29.1571368055045</v>
       </c>
       <c r="D358" t="n">
-        <v>40.7464648140719</v>
+        <v>40.7639189977657</v>
       </c>
       <c r="E358" t="n">
-        <v>31.088691473599</v>
+        <v>31.0916005042147</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -7634,10 +7634,10 @@
         <v>1181.04909724387</v>
       </c>
       <c r="D359" t="n">
-        <v>2837.23866786876</v>
+        <v>2847.67719675543</v>
       </c>
       <c r="E359" t="n">
-        <v>1582.41946129719</v>
+        <v>1585.54145680183</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -7654,10 +7654,10 @@
         <v>0.520848808696237</v>
       </c>
       <c r="D360" t="n">
-        <v>1.51038118857325</v>
+        <v>1.54657178154093</v>
       </c>
       <c r="E360" t="n">
-        <v>0.797873581312301</v>
+        <v>0.801138925366117</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7674,10 +7674,10 @@
         <v>0.797375226574292</v>
       </c>
       <c r="D361" t="n">
-        <v>0.875181715487276</v>
+        <v>0.876317031354426</v>
       </c>
       <c r="E361" t="n">
-        <v>0.747834233942484</v>
+        <v>0.745818119968728</v>
       </c>
       <c r="F361" t="s">
         <v>30</v>
@@ -8094,10 +8094,10 @@
         <v>98.48506642476</v>
       </c>
       <c r="D382" t="n">
-        <v>159.604180755545</v>
+        <v>79.4745206714559</v>
       </c>
       <c r="E382" t="n">
-        <v>108.671585479891</v>
+        <v>95.3166421325427</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8114,10 +8114,10 @@
         <v>5191.85373826034</v>
       </c>
       <c r="D383" t="n">
-        <v>2706.71358778097</v>
+        <v>2616.69397114288</v>
       </c>
       <c r="E383" t="n">
-        <v>4866.60430286043</v>
+        <v>4858.39159832509</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8134,10 +8134,10 @@
         <v>1.68089955799498</v>
       </c>
       <c r="D384" t="n">
-        <v>1.26725065403075</v>
+        <v>0.894964155050349</v>
       </c>
       <c r="E384" t="n">
-        <v>0.959381802412441</v>
+        <v>0.923859111642824</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8154,10 +8154,10 @@
         <v>0.527090876766937</v>
       </c>
       <c r="D385" t="n">
-        <v>0.326882800013919</v>
+        <v>0.529283622220729</v>
       </c>
       <c r="E385" t="n">
-        <v>0.525765480851759</v>
+        <v>0.524608979650952</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8574,10 +8574,10 @@
         <v>23.345447221582</v>
       </c>
       <c r="D406" t="n">
-        <v>186.55506441314</v>
+        <v>186.651285386962</v>
       </c>
       <c r="E406" t="n">
-        <v>50.5470500868417</v>
+        <v>50.563086915812</v>
       </c>
       <c r="F406" t="s">
         <v>32</v>
@@ -8594,10 +8594,10 @@
         <v>90.868074419849</v>
       </c>
       <c r="D407" t="n">
-        <v>3914.189712445</v>
+        <v>3891.6033247586</v>
       </c>
       <c r="E407" t="n">
-        <v>1600.11281580155</v>
+        <v>1590.90443207714</v>
       </c>
       <c r="F407" t="s">
         <v>32</v>
@@ -8614,10 +8614,10 @@
         <v>0.777160603531118</v>
       </c>
       <c r="D408" t="n">
-        <v>19.6874420523177</v>
+        <v>19.8597258589463</v>
       </c>
       <c r="E408" t="n">
-        <v>6.32045273701312</v>
+        <v>6.31702942299675</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8634,10 +8634,10 @@
         <v>0.90356218284212</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0847488259645723</v>
+        <v>0.0844014640595158</v>
       </c>
       <c r="E409" t="n">
-        <v>0.375738090253878</v>
+        <v>0.37543208196687</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -8651,13 +8651,13 @@
         <v>7</v>
       </c>
       <c r="C410" t="n">
-        <v>14.0486353456047</v>
+        <v>14.2442500360288</v>
       </c>
       <c r="D410" t="n">
-        <v>18.5224414995126</v>
+        <v>10.5774617021799</v>
       </c>
       <c r="E410" t="n">
-        <v>14.8620546463152</v>
+        <v>13.5775612480563</v>
       </c>
       <c r="F410" t="s">
         <v>33</v>
@@ -8671,13 +8671,13 @@
         <v>9</v>
       </c>
       <c r="C411" t="n">
-        <v>585.127564298898</v>
+        <v>622.781375486925</v>
       </c>
       <c r="D411" t="n">
-        <v>883.026477920677</v>
+        <v>432.354962377453</v>
       </c>
       <c r="E411" t="n">
-        <v>649.534093159315</v>
+        <v>592.726473929455</v>
       </c>
       <c r="F411" t="s">
         <v>33</v>
@@ -8691,13 +8691,13 @@
         <v>10</v>
       </c>
       <c r="C412" t="n">
-        <v>0.542436034547535</v>
+        <v>0.653548605914422</v>
       </c>
       <c r="D412" t="n">
-        <v>2.11422983942175</v>
+        <v>0.654281830980731</v>
       </c>
       <c r="E412" t="n">
-        <v>0.671594993233093</v>
+        <v>0.652515632975362</v>
       </c>
       <c r="F412" t="s">
         <v>33</v>
@@ -8711,13 +8711,13 @@
         <v>11</v>
       </c>
       <c r="C413" t="n">
-        <v>0.894822175666739</v>
+        <v>0.878288075579708</v>
       </c>
       <c r="D413" t="n">
-        <v>0.74006449229046</v>
+        <v>0.871733814001472</v>
       </c>
       <c r="E413" t="n">
-        <v>0.859274021063429</v>
+        <v>0.877816245600891</v>
       </c>
       <c r="F413" t="s">
         <v>33</v>
@@ -8731,13 +8731,13 @@
         <v>7</v>
       </c>
       <c r="C414" t="n">
-        <v>12.1957797340501</v>
+        <v>11.1422405748136</v>
       </c>
       <c r="D414" t="n">
-        <v>18.90329664023</v>
+        <v>28.1224702735372</v>
       </c>
       <c r="E414" t="n">
-        <v>13.3136992184134</v>
+        <v>13.9722788579342</v>
       </c>
       <c r="F414" t="s">
         <v>33</v>
@@ -8751,13 +8751,13 @@
         <v>9</v>
       </c>
       <c r="C415" t="n">
-        <v>611.479984924034</v>
+        <v>508.541919703106</v>
       </c>
       <c r="D415" t="n">
-        <v>670.904172078041</v>
+        <v>878.218492034089</v>
       </c>
       <c r="E415" t="n">
-        <v>621.778533445954</v>
+        <v>586.563741950698</v>
       </c>
       <c r="F415" t="s">
         <v>33</v>
@@ -8771,13 +8771,13 @@
         <v>10</v>
       </c>
       <c r="C416" t="n">
-        <v>0.517070156881147</v>
+        <v>0.464956567246775</v>
       </c>
       <c r="D416" t="n">
-        <v>0.753093482647863</v>
+        <v>0.953566922497034</v>
       </c>
       <c r="E416" t="n">
-        <v>0.598107972399994</v>
+        <v>0.576568011898643</v>
       </c>
       <c r="F416" t="s">
         <v>33</v>
@@ -8791,13 +8791,13 @@
         <v>11</v>
       </c>
       <c r="C417" t="n">
-        <v>0.885322823726919</v>
+        <v>0.91931637021824</v>
       </c>
       <c r="D417" t="n">
-        <v>0.853043415791983</v>
+        <v>0.819550664655906</v>
       </c>
       <c r="E417" t="n">
-        <v>0.869848707770205</v>
+        <v>0.886715142047782</v>
       </c>
       <c r="F417" t="s">
         <v>33</v>
@@ -8811,13 +8811,13 @@
         <v>7</v>
       </c>
       <c r="C418" t="n">
-        <v>12.5861487764819</v>
+        <v>10.7753280430568</v>
       </c>
       <c r="D418" t="n">
-        <v>13.6900533437564</v>
+        <v>14.4682585750251</v>
       </c>
       <c r="E418" t="n">
-        <v>12.7701328710277</v>
+        <v>11.3908164650515</v>
       </c>
       <c r="F418" t="s">
         <v>33</v>
@@ -8831,13 +8831,13 @@
         <v>9</v>
       </c>
       <c r="C419" t="n">
-        <v>512.646610645074</v>
+        <v>406.945032193089</v>
       </c>
       <c r="D419" t="n">
-        <v>633.239533247238</v>
+        <v>671.520299129595</v>
       </c>
       <c r="E419" t="n">
-        <v>534.637734591781</v>
+        <v>461.692684274629</v>
       </c>
       <c r="F419" t="s">
         <v>33</v>
@@ -8851,13 +8851,13 @@
         <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>0.460746337356457</v>
+        <v>0.403460542499345</v>
       </c>
       <c r="D420" t="n">
-        <v>0.652508134160002</v>
+        <v>0.709775754253126</v>
       </c>
       <c r="E420" t="n">
-        <v>0.515596386199424</v>
+        <v>0.465202452008177</v>
       </c>
       <c r="F420" t="s">
         <v>33</v>
@@ -8871,13 +8871,13 @@
         <v>11</v>
       </c>
       <c r="C421" t="n">
-        <v>0.920048209318721</v>
+        <v>0.948747155275806</v>
       </c>
       <c r="D421" t="n">
-        <v>0.906307735606749</v>
+        <v>0.908758867914569</v>
       </c>
       <c r="E421" t="n">
-        <v>0.907985272494915</v>
+        <v>0.931504226429091</v>
       </c>
       <c r="F421" t="s">
         <v>33</v>
@@ -8891,13 +8891,13 @@
         <v>7</v>
       </c>
       <c r="C422" t="n">
-        <v>13.0588440197177</v>
+        <v>10.7042325713129</v>
       </c>
       <c r="D422" t="n">
-        <v>19.2242763833505</v>
+        <v>29.0761762457393</v>
       </c>
       <c r="E422" t="n">
-        <v>14.0864160803232</v>
+        <v>13.7662231837173</v>
       </c>
       <c r="F422" t="s">
         <v>33</v>
@@ -8911,13 +8911,13 @@
         <v>9</v>
       </c>
       <c r="C423" t="n">
-        <v>610.325392546908</v>
+        <v>480.660466618244</v>
       </c>
       <c r="D423" t="n">
-        <v>656.722985308199</v>
+        <v>939.828390387802</v>
       </c>
       <c r="E423" t="n">
-        <v>618.300156796816</v>
+        <v>582.87360325478</v>
       </c>
       <c r="F423" t="s">
         <v>33</v>
@@ -8931,13 +8931,13 @@
         <v>10</v>
       </c>
       <c r="C424" t="n">
-        <v>0.509497302127243</v>
+        <v>0.440645267629627</v>
       </c>
       <c r="D424" t="n">
-        <v>0.7574212799526</v>
+        <v>1.04755382328137</v>
       </c>
       <c r="E424" t="n">
-        <v>0.547806006045357</v>
+        <v>0.53372356145779</v>
       </c>
       <c r="F424" t="s">
         <v>33</v>
@@ -8951,13 +8951,13 @@
         <v>11</v>
       </c>
       <c r="C425" t="n">
-        <v>0.890957162616873</v>
+        <v>0.930011923925176</v>
       </c>
       <c r="D425" t="n">
-        <v>0.833695438654159</v>
+        <v>0.779060113423398</v>
       </c>
       <c r="E425" t="n">
-        <v>0.880315675049473</v>
+        <v>0.89445438681176</v>
       </c>
       <c r="F425" t="s">
         <v>33</v>
@@ -8971,13 +8971,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>11.3682248175503</v>
+        <v>9.93774409304188</v>
       </c>
       <c r="D426" t="n">
-        <v>12.5033948518294</v>
+        <v>12.9111077237632</v>
       </c>
       <c r="E426" t="n">
-        <v>11.5746193692374</v>
+        <v>10.4783556622639</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8991,13 +8991,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>509.53432239659</v>
+        <v>427.353024014774</v>
       </c>
       <c r="D427" t="n">
-        <v>473.630820119049</v>
+        <v>489.747401688151</v>
       </c>
       <c r="E427" t="n">
-        <v>503.196991864351</v>
+        <v>439.357019780222</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9011,13 +9011,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.428169552266555</v>
+        <v>0.394829856606241</v>
       </c>
       <c r="D428" t="n">
-        <v>0.612514262450178</v>
+        <v>0.571996549049559</v>
       </c>
       <c r="E428" t="n">
-        <v>0.494206093510194</v>
+        <v>0.450913659569561</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9031,13 +9031,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.920424908385425</v>
+        <v>0.942710619888375</v>
       </c>
       <c r="D429" t="n">
-        <v>0.879903081781534</v>
+        <v>0.887326978411223</v>
       </c>
       <c r="E429" t="n">
-        <v>0.914736780371969</v>
+        <v>0.933753581618442</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9051,13 +9051,13 @@
         <v>7</v>
       </c>
       <c r="C430" t="n">
-        <v>16.6560663773458</v>
+        <v>15.1411458160386</v>
       </c>
       <c r="D430" t="n">
-        <v>11.8027920819417</v>
+        <v>12.6081289150095</v>
       </c>
       <c r="E430" t="n">
-        <v>15.8471873281118</v>
+        <v>14.7189763325337</v>
       </c>
       <c r="F430" t="s">
         <v>33</v>
@@ -9071,13 +9071,13 @@
         <v>9</v>
       </c>
       <c r="C431" t="n">
-        <v>767.028041329587</v>
+        <v>682.569990116582</v>
       </c>
       <c r="D431" t="n">
-        <v>572.27399434648</v>
+        <v>611.431899145049</v>
       </c>
       <c r="E431" t="n">
-        <v>738.14605663274</v>
+        <v>671.237405137069</v>
       </c>
       <c r="F431" t="s">
         <v>33</v>
@@ -9091,13 +9091,13 @@
         <v>10</v>
       </c>
       <c r="C432" t="n">
-        <v>0.625061780229526</v>
+        <v>0.580440367870957</v>
       </c>
       <c r="D432" t="n">
-        <v>0.598638262000897</v>
+        <v>0.656721634304412</v>
       </c>
       <c r="E432" t="n">
-        <v>0.656937682809564</v>
+        <v>0.607823304191444</v>
       </c>
       <c r="F432" t="s">
         <v>33</v>
@@ -9111,13 +9111,13 @@
         <v>11</v>
       </c>
       <c r="C433" t="n">
-        <v>0.826214809941189</v>
+        <v>0.861641766366615</v>
       </c>
       <c r="D433" t="n">
-        <v>0.926156397872951</v>
+        <v>0.929513177522653</v>
       </c>
       <c r="E433" t="n">
-        <v>0.829006182545162</v>
+        <v>0.860340801379724</v>
       </c>
       <c r="F433" t="s">
         <v>33</v>
@@ -9534,10 +9534,10 @@
         <v>16.8388746095559</v>
       </c>
       <c r="D454" t="n">
-        <v>48.4249999303096</v>
+        <v>49.6505844905412</v>
       </c>
       <c r="E454" t="n">
-        <v>22.1032288296815</v>
+        <v>22.3074929230534</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9554,10 +9554,10 @@
         <v>236.208774195654</v>
       </c>
       <c r="D455" t="n">
-        <v>567.602927927036</v>
+        <v>579.471043127735</v>
       </c>
       <c r="E455" t="n">
-        <v>316.529621790866</v>
+        <v>320.093636003231</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9574,10 +9574,10 @@
         <v>0.504177785293007</v>
       </c>
       <c r="D456" t="n">
-        <v>1.79849400619652</v>
+        <v>1.88826135999075</v>
       </c>
       <c r="E456" t="n">
-        <v>0.668857349473131</v>
+        <v>0.678894048507312</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9594,10 +9594,10 @@
         <v>0.777137778008644</v>
       </c>
       <c r="D457" t="n">
-        <v>0.748377633515495</v>
+        <v>0.760315034376782</v>
       </c>
       <c r="E457" t="n">
-        <v>0.657265971875802</v>
+        <v>0.652263488573634</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -10012,10 +10012,10 @@
         <v>120.881685625841</v>
       </c>
       <c r="D478" t="n">
-        <v>148.573126357457</v>
+        <v>136.798033456226</v>
       </c>
       <c r="E478" t="n">
-        <v>125.496925747777</v>
+        <v>123.534410264239</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10032,10 +10032,10 @@
         <v>2924.70062239132</v>
       </c>
       <c r="D479" t="n">
-        <v>1673.77419590616</v>
+        <v>1688.4584211398</v>
       </c>
       <c r="E479" t="n">
-        <v>2755.92962875694</v>
+        <v>2757.42212017549</v>
       </c>
       <c r="F479" t="s">
         <v>35</v>
@@ -10052,10 +10052,10 @@
         <v>1.42974421549462</v>
       </c>
       <c r="D480" t="n">
-        <v>1.39737353603758</v>
+        <v>1.32779528167577</v>
       </c>
       <c r="E480" t="n">
-        <v>2.1104726128133</v>
+        <v>2.08543637641494</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10072,10 +10072,10 @@
         <v>0.0687938822940302</v>
       </c>
       <c r="D481" t="n">
-        <v>0.48127820925048</v>
+        <v>0.458927444216839</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0848502810895548</v>
+        <v>0.0832127792108081</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10492,10 +10492,10 @@
         <v>68.2651677710986</v>
       </c>
       <c r="D502" t="n">
-        <v>157.043016982565</v>
+        <v>156.942977644484</v>
       </c>
       <c r="E502" t="n">
-        <v>83.0614759730097</v>
+        <v>83.0448027499963</v>
       </c>
       <c r="F502" t="s">
         <v>36</v>
@@ -10512,10 +10512,10 @@
         <v>601.14110953725</v>
       </c>
       <c r="D503" t="n">
-        <v>2873.49898521685</v>
+        <v>2868.3580268325</v>
       </c>
       <c r="E503" t="n">
-        <v>1295.10936384543</v>
+        <v>1293.20860253176</v>
       </c>
       <c r="F503" t="s">
         <v>36</v>
@@ -10532,10 +10532,10 @@
         <v>2.0257587471605</v>
       </c>
       <c r="D504" t="n">
-        <v>12.5800919221744</v>
+        <v>12.786747334742</v>
       </c>
       <c r="E504" t="n">
-        <v>1.84668747251021</v>
+        <v>1.85115288876172</v>
       </c>
       <c r="F504" t="s">
         <v>36</v>
@@ -10552,10 +10552,10 @@
         <v>0.689317590081223</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0128506877775891</v>
+        <v>0.0138945764989509</v>
       </c>
       <c r="E505" t="n">
-        <v>0.226789901400918</v>
+        <v>0.227312901680868</v>
       </c>
       <c r="F505" t="s">
         <v>36</v>
@@ -10569,13 +10569,13 @@
         <v>7</v>
       </c>
       <c r="C506" t="n">
-        <v>18.2770418170353</v>
+        <v>18.238774252052</v>
       </c>
       <c r="D506" t="n">
-        <v>65.4512286130334</v>
+        <v>58.4877439740219</v>
       </c>
       <c r="E506" t="n">
-        <v>26.8541666890349</v>
+        <v>25.5567687469556</v>
       </c>
       <c r="F506" t="s">
         <v>37</v>
@@ -10589,13 +10589,13 @@
         <v>9</v>
       </c>
       <c r="C507" t="n">
-        <v>95.9364693668093</v>
+        <v>95.8487433810013</v>
       </c>
       <c r="D507" t="n">
-        <v>407.954972882969</v>
+        <v>346.425767174466</v>
       </c>
       <c r="E507" t="n">
-        <v>194.396215636333</v>
+        <v>171.279797353041</v>
       </c>
       <c r="F507" t="s">
         <v>37</v>
@@ -10609,13 +10609,13 @@
         <v>10</v>
       </c>
       <c r="C508" t="n">
-        <v>1.50568041259125</v>
+        <v>1.59354873279263</v>
       </c>
       <c r="D508" t="n">
-        <v>9.95940819124767</v>
+        <v>18.5209826430015</v>
       </c>
       <c r="E508" t="n">
-        <v>2.90399212691061</v>
+        <v>3.05014750937722</v>
       </c>
       <c r="F508" t="s">
         <v>37</v>
@@ -10629,13 +10629,13 @@
         <v>11</v>
       </c>
       <c r="C509" t="n">
-        <v>0.61615071686131</v>
+        <v>0.61855875150037</v>
       </c>
       <c r="D509" t="n">
-        <v>0.00175268109818649</v>
+        <v>0.0162553780384954</v>
       </c>
       <c r="E509" t="n">
-        <v>0.217544123217833</v>
+        <v>0.253306388069147</v>
       </c>
       <c r="F509" t="s">
         <v>37</v>
@@ -10649,13 +10649,13 @@
         <v>7</v>
       </c>
       <c r="C510" t="n">
-        <v>19.6224011333045</v>
+        <v>19.6355080351064</v>
       </c>
       <c r="D510" t="n">
-        <v>20.4334587935822</v>
+        <v>19.5436480446864</v>
       </c>
       <c r="E510" t="n">
-        <v>19.7575774100175</v>
+        <v>19.620198036703</v>
       </c>
       <c r="F510" t="s">
         <v>37</v>
@@ -10669,13 +10669,13 @@
         <v>9</v>
       </c>
       <c r="C511" t="n">
-        <v>112.232260951516</v>
+        <v>112.311947159232</v>
       </c>
       <c r="D511" t="n">
-        <v>114.105222589257</v>
+        <v>110.104985515608</v>
       </c>
       <c r="E511" t="n">
-        <v>112.546585771989</v>
+        <v>111.947141700063</v>
       </c>
       <c r="F511" t="s">
         <v>37</v>
@@ -10689,13 +10689,13 @@
         <v>10</v>
       </c>
       <c r="C512" t="n">
-        <v>0.731010629050318</v>
+        <v>0.734247216060643</v>
       </c>
       <c r="D512" t="n">
-        <v>1.2622990460695</v>
+        <v>1.20369453559257</v>
       </c>
       <c r="E512" t="n">
-        <v>0.994356973173999</v>
+        <v>0.988550871137867</v>
       </c>
       <c r="F512" t="s">
         <v>37</v>
@@ -10709,13 +10709,13 @@
         <v>11</v>
       </c>
       <c r="C513" t="n">
-        <v>0.444402953601576</v>
+        <v>0.443504831145018</v>
       </c>
       <c r="D513" t="n">
-        <v>0.302477968832274</v>
+        <v>0.303790113869164</v>
       </c>
       <c r="E513" t="n">
-        <v>0.404040275001194</v>
+        <v>0.405569902168432</v>
       </c>
       <c r="F513" t="s">
         <v>37</v>
@@ -10729,13 +10729,13 @@
         <v>7</v>
       </c>
       <c r="C514" t="n">
-        <v>17.9204435486279</v>
+        <v>17.9605024799215</v>
       </c>
       <c r="D514" t="n">
-        <v>14.6229270822606</v>
+        <v>14.360321792911</v>
       </c>
       <c r="E514" t="n">
-        <v>17.3708574709</v>
+        <v>17.3604723654197</v>
       </c>
       <c r="F514" t="s">
         <v>37</v>
@@ -10749,13 +10749,13 @@
         <v>9</v>
       </c>
       <c r="C515" t="n">
-        <v>98.0027855886765</v>
+        <v>97.6279357917653</v>
       </c>
       <c r="D515" t="n">
-        <v>90.4832088301876</v>
+        <v>87.4001298791666</v>
       </c>
       <c r="E515" t="n">
-        <v>96.7901002133894</v>
+        <v>95.9990034129699</v>
       </c>
       <c r="F515" t="s">
         <v>37</v>
@@ -10769,13 +10769,13 @@
         <v>10</v>
       </c>
       <c r="C516" t="n">
-        <v>0.657898066324784</v>
+        <v>0.659375978830841</v>
       </c>
       <c r="D516" t="n">
-        <v>0.737635071055279</v>
+        <v>0.72032683155815</v>
       </c>
       <c r="E516" t="n">
-        <v>0.843961734983322</v>
+        <v>0.839532579709015</v>
       </c>
       <c r="F516" t="s">
         <v>37</v>
@@ -10789,13 +10789,13 @@
         <v>11</v>
       </c>
       <c r="C517" t="n">
-        <v>0.581409984783246</v>
+        <v>0.583738329874588</v>
       </c>
       <c r="D517" t="n">
-        <v>0.322437643153194</v>
+        <v>0.326636923104275</v>
       </c>
       <c r="E517" t="n">
-        <v>0.556516399923181</v>
+        <v>0.560422357775793</v>
       </c>
       <c r="F517" t="s">
         <v>37</v>
@@ -10809,13 +10809,13 @@
         <v>7</v>
       </c>
       <c r="C518" t="n">
-        <v>20.5589383533984</v>
+        <v>19.9094020336106</v>
       </c>
       <c r="D518" t="n">
-        <v>23.7422769272538</v>
+        <v>29.3096022419657</v>
       </c>
       <c r="E518" t="n">
-        <v>21.0894947823743</v>
+        <v>21.4761020683365</v>
       </c>
       <c r="F518" t="s">
         <v>37</v>
@@ -10829,13 +10829,13 @@
         <v>9</v>
       </c>
       <c r="C519" t="n">
-        <v>113.63855821964</v>
+        <v>112.214933334143</v>
       </c>
       <c r="D519" t="n">
-        <v>121.753317792594</v>
+        <v>149.235730016701</v>
       </c>
       <c r="E519" t="n">
-        <v>115.030778464358</v>
+        <v>119.186310336344</v>
       </c>
       <c r="F519" t="s">
         <v>37</v>
@@ -10849,13 +10849,13 @@
         <v>10</v>
       </c>
       <c r="C520" t="n">
-        <v>1.50050856779977</v>
+        <v>1.6209044214368</v>
       </c>
       <c r="D520" t="n">
-        <v>1.42124525695884</v>
+        <v>1.86608786403793</v>
       </c>
       <c r="E520" t="n">
-        <v>1.48065710691338</v>
+        <v>1.67993972661483</v>
       </c>
       <c r="F520" t="s">
         <v>37</v>
@@ -10869,13 +10869,13 @@
         <v>11</v>
       </c>
       <c r="C521" t="n">
-        <v>0.447507208202013</v>
+        <v>0.452067302015783</v>
       </c>
       <c r="D521" t="n">
-        <v>0.474718070786904</v>
+        <v>0.453863405645321</v>
       </c>
       <c r="E521" t="n">
-        <v>0.423464577666268</v>
+        <v>0.397545480915227</v>
       </c>
       <c r="F521" t="s">
         <v>37</v>
@@ -10889,13 +10889,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>16.8338178625147</v>
+        <v>16.8479183844912</v>
       </c>
       <c r="D522" t="n">
-        <v>33.3396250387718</v>
+        <v>30.9868950118312</v>
       </c>
       <c r="E522" t="n">
-        <v>19.8348737127433</v>
+        <v>19.4186414076439</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10909,13 +10909,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>95.6870785769767</v>
+        <v>96.1712667294435</v>
       </c>
       <c r="D523" t="n">
-        <v>170.074357346821</v>
+        <v>156.125251803144</v>
       </c>
       <c r="E523" t="n">
-        <v>112.917800800259</v>
+        <v>109.540528572887</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10929,13 +10929,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.623562265468475</v>
+        <v>0.626431921206068</v>
       </c>
       <c r="D524" t="n">
-        <v>2.5539283094424</v>
+        <v>2.39501582080517</v>
       </c>
       <c r="E524" t="n">
-        <v>1.40924480687048</v>
+        <v>1.38430857163675</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10949,13 +10949,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.606665014525832</v>
+        <v>0.603565081540547</v>
       </c>
       <c r="D525" t="n">
-        <v>0.37510996746803</v>
+        <v>0.402192493807867</v>
       </c>
       <c r="E525" t="n">
-        <v>0.465622229297351</v>
+        <v>0.476829905970713</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -10969,13 +10969,13 @@
         <v>7</v>
       </c>
       <c r="C526" t="n">
-        <v>22.4875247310483</v>
+        <v>22.5150169378579</v>
       </c>
       <c r="D526" t="n">
-        <v>23.3272822241705</v>
+        <v>21.3830533626815</v>
       </c>
       <c r="E526" t="n">
-        <v>22.6274843132353</v>
+        <v>22.3263563419952</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10989,13 +10989,13 @@
         <v>9</v>
       </c>
       <c r="C527" t="n">
-        <v>119.071149666839</v>
+        <v>119.070486919132</v>
       </c>
       <c r="D527" t="n">
-        <v>125.479771003341</v>
+        <v>115.988089425106</v>
       </c>
       <c r="E527" t="n">
-        <v>120.162990937285</v>
+        <v>118.562319171735</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11009,13 +11009,13 @@
         <v>10</v>
       </c>
       <c r="C528" t="n">
-        <v>0.817247666430658</v>
+        <v>0.819625836421567</v>
       </c>
       <c r="D528" t="n">
-        <v>1.2122822154125</v>
+        <v>1.14544633168501</v>
       </c>
       <c r="E528" t="n">
-        <v>1.1710392842979</v>
+        <v>1.15922147853896</v>
       </c>
       <c r="F528" t="s">
         <v>37</v>
@@ -11029,13 +11029,13 @@
         <v>11</v>
       </c>
       <c r="C529" t="n">
-        <v>0.408218540090094</v>
+        <v>0.408094694088298</v>
       </c>
       <c r="D529" t="n">
-        <v>0.371786138911498</v>
+        <v>0.379335492470225</v>
       </c>
       <c r="E529" t="n">
-        <v>0.390286322302435</v>
+        <v>0.39575021061409</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11452,10 +11452,10 @@
         <v>39.5328394144882</v>
       </c>
       <c r="D550" t="n">
-        <v>88.5832719686832</v>
+        <v>83.9189724247635</v>
       </c>
       <c r="E550" t="n">
-        <v>47.707911506854</v>
+        <v>46.9305282495341</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11472,10 +11472,10 @@
         <v>99.9490772837268</v>
       </c>
       <c r="D551" t="n">
-        <v>47.078665068436</v>
+        <v>43.441073210506</v>
       </c>
       <c r="E551" t="n">
-        <v>93.2429541162655</v>
+        <v>92.9482087787087</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11492,10 +11492,10 @@
         <v>1.2645474574448</v>
       </c>
       <c r="D552" t="n">
-        <v>1.08349505371762</v>
+        <v>0.979551142881965</v>
       </c>
       <c r="E552" t="n">
-        <v>0.950197978143594</v>
+        <v>0.940214620827125</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11512,10 +11512,10 @@
         <v>0.406306829165699</v>
       </c>
       <c r="D553" t="n">
-        <v>0.821147462021162</v>
+        <v>0.836691938860018</v>
       </c>
       <c r="E553" t="n">
-        <v>0.460004781582556</v>
+        <v>0.459827217877876</v>
       </c>
       <c r="F553" t="s">
         <v>38</v>
